--- a/DatabasePrep/GeneratorInfo/generator_info_and_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_info_and_costs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36260" yWindow="-420" windowWidth="33560" windowHeight="21340" tabRatio="572"/>
+    <workbookView xWindow="11560" yWindow="3340" windowWidth="33560" windowHeight="21340" tabRatio="572" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="generator_info" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Costs CSV for export" sheetId="13" r:id="rId4"/>
     <sheet name="spinning_reserves_penalty" sheetId="11" r:id="rId5"/>
     <sheet name="deep_cycling_penalty" sheetId="10" r:id="rId6"/>
+    <sheet name="storage_params" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">generator_info!$B$1:$AL$63</definedName>
   </definedNames>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="232">
   <si>
     <t>We assumed that the capital cost and fixed cost for adding a CCS system increase by the same amount (per W) as for CCGT; we assumed CCS combustion turbine heat rate increases by the same percentage relative to non-CCS combustion turbines as CCS to non-CCS CCGT heat rates; we also assume that there's an adder per MWh for variable costs -- we assume that the difference in variable cost scales with the difference in heat rates (varO&amp;M scales with fuel use)</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -954,16 +955,46 @@
     <t>gen_costs_scenario_id</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>Battery lifetime and variable costs</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>Rahul Walawalker phd thesis: NaS cycle life is 5000 to 20000, service life is 12-20 yrs (p. 21)</t>
+  </si>
+  <si>
+    <t>EPRI 2010 storage technology options paper: "The estimated life of a sodium-sulfur battery is approximately 15 years after 4500 cycles at 90% depth of discharge."</t>
+  </si>
+  <si>
+    <t>PNNL; Lu, N., et al., “The Wide-Area Energy Storage and Management System – Battery Storage Evaluation”</t>
+  </si>
+  <si>
+    <t>Method:</t>
+  </si>
+  <si>
+    <t>Assume battery lifetime of 10 years at the 100% depth of discharge currently allowed by SWITCH</t>
+  </si>
+  <si>
+    <t>10 year lifetime assumed for 100% DoD; see storage_params sheet for sources</t>
+  </si>
+  <si>
+    <t>Assume frequent utilization: an average of just under one cycle per day (3142/(10*365) for the 100% DoD case), so might be a good idea to check number of cycles after the optimization</t>
+  </si>
+  <si>
+    <t>Assume no battery replacement in variable costs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1030,6 +1061,24 @@
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1054,14 +1103,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1120,14 +1175,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -1135,12 +1199,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1471,6 +1545,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1802,6 +1877,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2133,42 +2209,60 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="519330808"/>
-        <c:axId val="519333912"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2123712280"/>
+        <c:axId val="2123424696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="519330808"/>
+        <c:axId val="2123712280"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1.0"/>
           <c:min val="0.5"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519333912"/>
+        <c:crossAx val="2123424696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519333912"/>
+        <c:axId val="2123424696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519330808"/>
+        <c:crossAx val="2123712280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2182,12 +2276,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2518,42 +2622,60 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="523605560"/>
-        <c:axId val="523608712"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124119224"/>
+        <c:axId val="2124122248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="523605560"/>
+        <c:axId val="2124119224"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1.0"/>
           <c:min val="0.5"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523608712"/>
+        <c:crossAx val="2124122248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="523608712"/>
+        <c:axId val="2124122248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523605560"/>
+        <c:crossAx val="2124119224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2567,12 +2689,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2632,6 +2764,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2692,6 +2825,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2752,43 +2886,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="519387320"/>
-        <c:axId val="519390472"/>
+        <c:smooth val="0"/>
+        <c:axId val="2120031304"/>
+        <c:axId val="2120075544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="519387320"/>
+        <c:axId val="2120031304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519390472"/>
+        <c:crossAx val="2120075544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519390472"/>
+        <c:axId val="2120075544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519387320"/>
+        <c:crossAx val="2120031304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2802,7 +2956,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2820,11 +2982,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3079,6 +3244,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3334,6 +3500,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3589,6 +3756,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3844,43 +4012,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="523645176"/>
-        <c:axId val="523648472"/>
+        <c:smooth val="0"/>
+        <c:axId val="2119705832"/>
+        <c:axId val="2119645800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="523645176"/>
+        <c:axId val="2119705832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523648472"/>
+        <c:crossAx val="2119645800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523648472"/>
+        <c:axId val="2119645800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523645176"/>
+        <c:crossAx val="2119705832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3894,12 +4082,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4301,6 +4499,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4703,6 +4902,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5105,43 +5305,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="519487000"/>
-        <c:axId val="519490152"/>
+        <c:smooth val="0"/>
+        <c:axId val="2119966616"/>
+        <c:axId val="2113501704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="519487000"/>
+        <c:axId val="2119966616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519490152"/>
+        <c:crossAx val="2113501704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519490152"/>
+        <c:axId val="2113501704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519487000"/>
+        <c:crossAx val="2119966616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5306,6 +5526,58 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="952500" y="825500"/>
+          <a:ext cx="5486400" cy="2322195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5630,17 +5902,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AK21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="23"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
@@ -5783,7 +6055,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -5898,7 +6170,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>103</v>
@@ -6038,7 +6310,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>110</v>
@@ -6164,7 +6436,7 @@
     </row>
     <row r="5" spans="1:38" s="19" customFormat="1">
       <c r="A5" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="19">
         <v>34</v>
@@ -6291,7 +6563,7 @@
     </row>
     <row r="6" spans="1:38" s="3" customFormat="1">
       <c r="A6" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -6409,7 +6681,7 @@
     </row>
     <row r="7" spans="1:38" s="15" customFormat="1">
       <c r="A7" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15">
         <v>32</v>
@@ -6535,7 +6807,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -6650,7 +6922,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>101</v>
@@ -6790,7 +7062,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>111</v>
@@ -6915,7 +7187,7 @@
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1">
       <c r="A11" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B11" s="19">
         <v>35</v>
@@ -7043,7 +7315,7 @@
     </row>
     <row r="12" spans="1:38" s="14" customFormat="1">
       <c r="A12" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B12" s="14">
         <v>17</v>
@@ -7166,7 +7438,7 @@
     </row>
     <row r="13" spans="1:38" s="15" customFormat="1">
       <c r="A13" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B13" s="15">
         <v>29</v>
@@ -7292,7 +7564,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3">
         <v>104</v>
@@ -7420,7 +7692,7 @@
     </row>
     <row r="15" spans="1:38" s="23" customFormat="1">
       <c r="A15" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B15" s="23">
         <v>112</v>
@@ -7559,7 +7831,7 @@
     </row>
     <row r="16" spans="1:38" s="23" customFormat="1">
       <c r="A16" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16" s="23">
         <v>24</v>
@@ -7685,7 +7957,7 @@
     </row>
     <row r="17" spans="1:38" s="23" customFormat="1">
       <c r="A17" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B17" s="23">
         <v>40</v>
@@ -7812,7 +8084,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3">
         <v>102</v>
@@ -7950,7 +8222,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3">
         <v>113</v>
@@ -8088,7 +8360,7 @@
     </row>
     <row r="20" spans="1:38" s="3" customFormat="1">
       <c r="A20" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -8210,7 +8482,7 @@
     </row>
     <row r="21" spans="1:38" s="15" customFormat="1">
       <c r="A21" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B21" s="15">
         <v>31</v>
@@ -8337,7 +8609,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3">
         <v>60</v>
@@ -8475,7 +8747,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3">
         <v>61</v>
@@ -8613,7 +8885,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3">
         <v>12</v>
@@ -8728,7 +9000,7 @@
     </row>
     <row r="25" spans="1:38" s="19" customFormat="1">
       <c r="A25" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B25" s="19">
         <v>39</v>
@@ -8853,7 +9125,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3">
         <v>100</v>
@@ -8993,7 +9265,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3">
         <v>117</v>
@@ -9131,7 +9403,7 @@
     </row>
     <row r="28" spans="1:38" s="3" customFormat="1">
       <c r="A28" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>18</v>
@@ -9257,7 +9529,7 @@
     </row>
     <row r="29" spans="1:38" s="15" customFormat="1">
       <c r="A29" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B29" s="15">
         <v>30</v>
@@ -9384,7 +9656,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B30" s="3">
         <v>11</v>
@@ -9499,7 +9771,7 @@
     </row>
     <row r="31" spans="1:38" s="19" customFormat="1">
       <c r="A31" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B31" s="19">
         <v>38</v>
@@ -9624,7 +9896,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B32" s="23">
         <v>10</v>
@@ -9740,7 +10012,7 @@
     </row>
     <row r="33" spans="1:38" s="19" customFormat="1">
       <c r="A33" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B33" s="19">
         <v>37</v>
@@ -9868,7 +10140,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B34" s="3">
         <v>90</v>
@@ -10002,7 +10274,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B35" s="3">
         <v>91</v>
@@ -10140,7 +10412,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3">
         <v>107</v>
@@ -10268,7 +10540,7 @@
     </row>
     <row r="37" spans="1:38" ht="14" customHeight="1">
       <c r="A37" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B37" s="3">
         <v>116</v>
@@ -10406,7 +10678,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B38" s="3">
         <v>8</v>
@@ -10523,7 +10795,7 @@
     </row>
     <row r="39" spans="1:38" s="23" customFormat="1">
       <c r="A39" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B39" s="23">
         <v>36</v>
@@ -10660,7 +10932,7 @@
     </row>
     <row r="40" spans="1:38">
       <c r="A40" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3">
         <v>105</v>
@@ -10789,7 +11061,7 @@
     </row>
     <row r="41" spans="1:38" s="23" customFormat="1">
       <c r="A41" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B41" s="23">
         <v>114</v>
@@ -10922,7 +11194,7 @@
     </row>
     <row r="42" spans="1:38" s="23" customFormat="1">
       <c r="A42" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B42" s="23">
         <v>80</v>
@@ -11059,7 +11331,7 @@
     </row>
     <row r="43" spans="1:38" s="23" customFormat="1">
       <c r="A43" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B43" s="23">
         <v>81</v>
@@ -11195,7 +11467,7 @@
     </row>
     <row r="44" spans="1:38" s="23" customFormat="1">
       <c r="A44" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B44" s="23">
         <v>82</v>
@@ -11331,7 +11603,7 @@
     </row>
     <row r="45" spans="1:38">
       <c r="A45" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B45" s="3">
         <v>85</v>
@@ -11468,7 +11740,7 @@
     </row>
     <row r="46" spans="1:38">
       <c r="A46" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B46" s="3">
         <v>106</v>
@@ -11597,7 +11869,7 @@
     </row>
     <row r="47" spans="1:38" s="23" customFormat="1">
       <c r="A47" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B47" s="23">
         <v>115</v>
@@ -11739,7 +12011,7 @@
     </row>
     <row r="48" spans="1:38" s="3" customFormat="1">
       <c r="A48" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <v>22</v>
@@ -11864,7 +12136,7 @@
     </row>
     <row r="49" spans="1:38">
       <c r="A49" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B49" s="3">
         <v>13</v>
@@ -11979,7 +12251,7 @@
     </row>
     <row r="50" spans="1:38" s="3" customFormat="1">
       <c r="A50" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B50" s="23">
         <v>21</v>
@@ -12092,7 +12364,7 @@
     </row>
     <row r="51" spans="1:38">
       <c r="A51" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B51" s="3">
         <v>14</v>
@@ -12206,7 +12478,7 @@
     </row>
     <row r="52" spans="1:38">
       <c r="A52" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3">
         <v>6</v>
@@ -12318,7 +12590,7 @@
     </row>
     <row r="53" spans="1:38" s="5" customFormat="1">
       <c r="A53" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B53" s="5">
         <v>25</v>
@@ -12430,7 +12702,7 @@
     </row>
     <row r="54" spans="1:38" s="5" customFormat="1">
       <c r="A54" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B54" s="5">
         <v>26</v>
@@ -12542,7 +12814,7 @@
     </row>
     <row r="55" spans="1:38" s="3" customFormat="1">
       <c r="A55" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B55" s="7">
         <v>27</v>
@@ -12655,7 +12927,7 @@
     </row>
     <row r="56" spans="1:38" s="8" customFormat="1">
       <c r="A56" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B56" s="8">
         <v>7</v>
@@ -12767,7 +13039,7 @@
     </row>
     <row r="57" spans="1:38" s="14" customFormat="1">
       <c r="A57" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B57" s="14">
         <v>23</v>
@@ -12892,7 +13164,7 @@
     </row>
     <row r="58" spans="1:38">
       <c r="A58" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B58" s="3">
         <v>4</v>
@@ -13004,7 +13276,7 @@
     </row>
     <row r="59" spans="1:38">
       <c r="A59" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B59" s="3">
         <v>5</v>
@@ -13118,7 +13390,7 @@
     </row>
     <row r="60" spans="1:38">
       <c r="A60" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B60" s="3">
         <v>15</v>
@@ -13230,7 +13502,7 @@
     </row>
     <row r="61" spans="1:38">
       <c r="A61" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B61" s="3">
         <v>16</v>
@@ -13344,7 +13616,7 @@
     </row>
     <row r="62" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B62" s="7">
         <v>28</v>
@@ -13461,7 +13733,7 @@
     </row>
     <row r="63" spans="1:38" s="54" customFormat="1">
       <c r="A63" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B63" s="54">
         <v>33</v>
@@ -13500,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="54">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P63" s="54">
         <v>0.02</v>
@@ -13568,6 +13840,9 @@
       <c r="AK63" s="54" t="str">
         <f t="shared" si="32"/>
         <v>Battery_Storage</v>
+      </c>
+      <c r="AL63" s="56" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="3:14">
@@ -13650,8 +13925,9 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -13659,14 +13935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK68"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:A63"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="23"/>
     <col min="2" max="2" width="10.7109375" style="2"/>
@@ -13834,7 +14110,7 @@
     <row r="2" spans="1:37" s="3" customFormat="1">
       <c r="A2" s="23">
         <f>generator_info!A2</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="23">
         <f>generator_info!B2</f>
@@ -13984,7 +14260,7 @@
     <row r="3" spans="1:37" s="3" customFormat="1">
       <c r="A3" s="23">
         <f>generator_info!A3</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="23">
         <f>generator_info!B3</f>
@@ -14134,7 +14410,7 @@
     <row r="4" spans="1:37" s="17" customFormat="1">
       <c r="A4" s="23">
         <f>generator_info!A4</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="23">
         <f>generator_info!B4</f>
@@ -14284,7 +14560,7 @@
     <row r="5" spans="1:37" s="3" customFormat="1">
       <c r="A5" s="23">
         <f>generator_info!A5</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="23">
         <f>generator_info!B5</f>
@@ -14434,7 +14710,7 @@
     <row r="6" spans="1:37" s="3" customFormat="1">
       <c r="A6" s="23">
         <f>generator_info!A6</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" s="23">
         <f>generator_info!B6</f>
@@ -14584,7 +14860,7 @@
     <row r="7" spans="1:37" s="3" customFormat="1">
       <c r="A7" s="23">
         <f>generator_info!A7</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" s="23">
         <f>generator_info!B7</f>
@@ -14734,7 +15010,7 @@
     <row r="8" spans="1:37" s="3" customFormat="1">
       <c r="A8" s="23">
         <f>generator_info!A8</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" s="23">
         <f>generator_info!B8</f>
@@ -14884,7 +15160,7 @@
     <row r="9" spans="1:37" s="3" customFormat="1">
       <c r="A9" s="23">
         <f>generator_info!A9</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" s="23">
         <f>generator_info!B9</f>
@@ -15034,7 +15310,7 @@
     <row r="10" spans="1:37" s="3" customFormat="1">
       <c r="A10" s="23">
         <f>generator_info!A10</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10" s="23">
         <f>generator_info!B10</f>
@@ -15184,7 +15460,7 @@
     <row r="11" spans="1:37" s="3" customFormat="1">
       <c r="A11" s="23">
         <f>generator_info!A11</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B11" s="23">
         <f>generator_info!B11</f>
@@ -15334,7 +15610,7 @@
     <row r="12" spans="1:37" s="3" customFormat="1">
       <c r="A12" s="23">
         <f>generator_info!A12</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B12" s="23">
         <f>generator_info!B12</f>
@@ -15484,7 +15760,7 @@
     <row r="13" spans="1:37" s="3" customFormat="1">
       <c r="A13" s="23">
         <f>generator_info!A13</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B13" s="23">
         <f>generator_info!B13</f>
@@ -15634,7 +15910,7 @@
     <row r="14" spans="1:37">
       <c r="A14" s="23">
         <f>generator_info!A14</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B14" s="23">
         <f>generator_info!B14</f>
@@ -15784,7 +16060,7 @@
     <row r="15" spans="1:37">
       <c r="A15" s="23">
         <f>generator_info!A15</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B15" s="23">
         <f>generator_info!B15</f>
@@ -15934,7 +16210,7 @@
     <row r="16" spans="1:37">
       <c r="A16" s="23">
         <f>generator_info!A16</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16" s="23">
         <f>generator_info!B16</f>
@@ -16084,7 +16360,7 @@
     <row r="17" spans="1:37">
       <c r="A17" s="23">
         <f>generator_info!A17</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B17" s="23">
         <f>generator_info!B17</f>
@@ -16234,7 +16510,7 @@
     <row r="18" spans="1:37">
       <c r="A18" s="23">
         <f>generator_info!A18</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B18" s="23">
         <f>generator_info!B18</f>
@@ -16384,7 +16660,7 @@
     <row r="19" spans="1:37">
       <c r="A19" s="23">
         <f>generator_info!A19</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B19" s="23">
         <f>generator_info!B19</f>
@@ -16534,7 +16810,7 @@
     <row r="20" spans="1:37">
       <c r="A20" s="23">
         <f>generator_info!A20</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B20" s="23">
         <f>generator_info!B20</f>
@@ -16684,7 +16960,7 @@
     <row r="21" spans="1:37">
       <c r="A21" s="23">
         <f>generator_info!A21</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B21" s="23">
         <f>generator_info!B21</f>
@@ -16834,7 +17110,7 @@
     <row r="22" spans="1:37">
       <c r="A22" s="23">
         <f>generator_info!A22</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B22" s="23">
         <f>generator_info!B22</f>
@@ -16984,7 +17260,7 @@
     <row r="23" spans="1:37">
       <c r="A23" s="23">
         <f>generator_info!A23</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B23" s="23">
         <f>generator_info!B23</f>
@@ -17134,7 +17410,7 @@
     <row r="24" spans="1:37">
       <c r="A24" s="23">
         <f>generator_info!A24</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B24" s="23">
         <f>generator_info!B24</f>
@@ -17284,7 +17560,7 @@
     <row r="25" spans="1:37">
       <c r="A25" s="23">
         <f>generator_info!A25</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B25" s="23">
         <f>generator_info!B25</f>
@@ -17434,7 +17710,7 @@
     <row r="26" spans="1:37">
       <c r="A26" s="23">
         <f>generator_info!A26</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B26" s="23">
         <f>generator_info!B26</f>
@@ -17584,7 +17860,7 @@
     <row r="27" spans="1:37">
       <c r="A27" s="23">
         <f>generator_info!A27</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B27" s="23">
         <f>generator_info!B27</f>
@@ -17734,7 +18010,7 @@
     <row r="28" spans="1:37">
       <c r="A28" s="23">
         <f>generator_info!A28</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B28" s="23">
         <f>generator_info!B28</f>
@@ -17884,7 +18160,7 @@
     <row r="29" spans="1:37">
       <c r="A29" s="23">
         <f>generator_info!A29</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B29" s="23">
         <f>generator_info!B29</f>
@@ -18034,7 +18310,7 @@
     <row r="30" spans="1:37">
       <c r="A30" s="23">
         <f>generator_info!A30</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B30" s="23">
         <f>generator_info!B30</f>
@@ -18184,7 +18460,7 @@
     <row r="31" spans="1:37">
       <c r="A31" s="23">
         <f>generator_info!A31</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B31" s="23">
         <f>generator_info!B31</f>
@@ -18334,7 +18610,7 @@
     <row r="32" spans="1:37">
       <c r="A32" s="23">
         <f>generator_info!A32</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B32" s="23">
         <f>generator_info!B32</f>
@@ -18484,7 +18760,7 @@
     <row r="33" spans="1:37">
       <c r="A33" s="23">
         <f>generator_info!A33</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B33" s="23">
         <f>generator_info!B33</f>
@@ -18634,7 +18910,7 @@
     <row r="34" spans="1:37">
       <c r="A34" s="23">
         <f>generator_info!A34</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B34" s="23">
         <f>generator_info!B34</f>
@@ -18784,7 +19060,7 @@
     <row r="35" spans="1:37">
       <c r="A35" s="23">
         <f>generator_info!A35</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B35" s="23">
         <f>generator_info!B35</f>
@@ -18934,7 +19210,7 @@
     <row r="36" spans="1:37" s="21" customFormat="1">
       <c r="A36" s="23">
         <f>generator_info!A36</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B36" s="23">
         <f>generator_info!B36</f>
@@ -19084,7 +19360,7 @@
     <row r="37" spans="1:37" s="21" customFormat="1">
       <c r="A37" s="23">
         <f>generator_info!A37</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B37" s="23">
         <f>generator_info!B37</f>
@@ -19234,7 +19510,7 @@
     <row r="38" spans="1:37" s="21" customFormat="1">
       <c r="A38" s="23">
         <f>generator_info!A38</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B38" s="23">
         <f>generator_info!B38</f>
@@ -19384,7 +19660,7 @@
     <row r="39" spans="1:37" s="21" customFormat="1">
       <c r="A39" s="23">
         <f>generator_info!A39</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B39" s="23">
         <f>generator_info!B39</f>
@@ -19534,7 +19810,7 @@
     <row r="40" spans="1:37" s="21" customFormat="1">
       <c r="A40" s="23">
         <f>generator_info!A40</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B40" s="23">
         <f>generator_info!B40</f>
@@ -19684,7 +19960,7 @@
     <row r="41" spans="1:37" s="21" customFormat="1">
       <c r="A41" s="23">
         <f>generator_info!A41</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B41" s="23">
         <f>generator_info!B41</f>
@@ -19834,7 +20110,7 @@
     <row r="42" spans="1:37" s="21" customFormat="1">
       <c r="A42" s="23">
         <f>generator_info!A42</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B42" s="23">
         <f>generator_info!B42</f>
@@ -19984,7 +20260,7 @@
     <row r="43" spans="1:37" s="21" customFormat="1">
       <c r="A43" s="23">
         <f>generator_info!A43</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B43" s="23">
         <f>generator_info!B43</f>
@@ -20134,7 +20410,7 @@
     <row r="44" spans="1:37">
       <c r="A44" s="23">
         <f>generator_info!A44</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B44" s="23">
         <f>generator_info!B44</f>
@@ -20284,7 +20560,7 @@
     <row r="45" spans="1:37">
       <c r="A45" s="23">
         <f>generator_info!A45</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B45" s="23">
         <f>generator_info!B45</f>
@@ -20434,7 +20710,7 @@
     <row r="46" spans="1:37">
       <c r="A46" s="23">
         <f>generator_info!A46</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B46" s="23">
         <f>generator_info!B46</f>
@@ -20584,7 +20860,7 @@
     <row r="47" spans="1:37">
       <c r="A47" s="23">
         <f>generator_info!A47</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B47" s="23">
         <f>generator_info!B47</f>
@@ -20734,7 +21010,7 @@
     <row r="48" spans="1:37">
       <c r="A48" s="23">
         <f>generator_info!A48</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B48" s="23">
         <f>generator_info!B48</f>
@@ -20884,7 +21160,7 @@
     <row r="49" spans="1:37">
       <c r="A49" s="23">
         <f>generator_info!A49</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B49" s="23">
         <f>generator_info!B49</f>
@@ -21034,7 +21310,7 @@
     <row r="50" spans="1:37">
       <c r="A50" s="23">
         <f>generator_info!A50</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B50" s="23">
         <f>generator_info!B50</f>
@@ -21184,7 +21460,7 @@
     <row r="51" spans="1:37">
       <c r="A51" s="23">
         <f>generator_info!A51</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B51" s="23">
         <f>generator_info!B51</f>
@@ -21334,7 +21610,7 @@
     <row r="52" spans="1:37">
       <c r="A52" s="23">
         <f>generator_info!A52</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B52" s="23">
         <f>generator_info!B52</f>
@@ -21484,7 +21760,7 @@
     <row r="53" spans="1:37">
       <c r="A53" s="23">
         <f>generator_info!A53</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B53" s="23">
         <f>generator_info!B53</f>
@@ -21634,7 +21910,7 @@
     <row r="54" spans="1:37">
       <c r="A54" s="23">
         <f>generator_info!A54</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B54" s="23">
         <f>generator_info!B54</f>
@@ -21784,7 +22060,7 @@
     <row r="55" spans="1:37">
       <c r="A55" s="23">
         <f>generator_info!A55</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B55" s="23">
         <f>generator_info!B55</f>
@@ -21934,7 +22210,7 @@
     <row r="56" spans="1:37">
       <c r="A56" s="23">
         <f>generator_info!A56</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B56" s="23">
         <f>generator_info!B56</f>
@@ -22084,7 +22360,7 @@
     <row r="57" spans="1:37">
       <c r="A57" s="23">
         <f>generator_info!A57</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B57" s="23">
         <f>generator_info!B57</f>
@@ -22234,7 +22510,7 @@
     <row r="58" spans="1:37">
       <c r="A58" s="23">
         <f>generator_info!A58</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B58" s="23">
         <f>generator_info!B58</f>
@@ -22384,7 +22660,7 @@
     <row r="59" spans="1:37">
       <c r="A59" s="23">
         <f>generator_info!A59</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B59" s="23">
         <f>generator_info!B59</f>
@@ -22534,7 +22810,7 @@
     <row r="60" spans="1:37">
       <c r="A60" s="23">
         <f>generator_info!A60</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B60" s="23">
         <f>generator_info!B60</f>
@@ -22684,7 +22960,7 @@
     <row r="61" spans="1:37">
       <c r="A61" s="23">
         <f>generator_info!A61</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B61" s="23">
         <f>generator_info!B61</f>
@@ -22834,7 +23110,7 @@
     <row r="62" spans="1:37">
       <c r="A62" s="23">
         <f>generator_info!A62</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B62" s="23">
         <f>generator_info!B62</f>
@@ -22984,7 +23260,7 @@
     <row r="63" spans="1:37">
       <c r="A63" s="23">
         <f>generator_info!A63</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B63" s="23">
         <f>generator_info!B63</f>
@@ -23040,7 +23316,7 @@
       </c>
       <c r="O63" s="23">
         <f>generator_info!O63</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P63" s="23">
         <f>generator_info!P63</f>
@@ -23126,9 +23402,9 @@
         <f>generator_info!AJ63</f>
         <v>0</v>
       </c>
-      <c r="AK63" s="23">
+      <c r="AK63" s="23" t="str">
         <f>generator_info!AL63</f>
-        <v>0</v>
+        <v>10 year lifetime assumed for 100% DoD; see storage_params sheet for sources</v>
       </c>
     </row>
     <row r="64" spans="1:37">
@@ -23275,7 +23551,7 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -23283,17 +23559,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K353"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="I319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="K344" sqref="K344:K352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="23"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -23366,7 +23642,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
         <f>generator_info!C$2</f>
@@ -23406,7 +23682,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="23" t="str">
         <f>generator_info!C$2</f>
@@ -23446,7 +23722,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="23" t="str">
         <f>generator_info!C$2</f>
@@ -23486,7 +23762,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" s="23" t="str">
         <f>generator_info!C$2</f>
@@ -23526,7 +23802,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" s="23" t="str">
         <f>generator_info!C$2</f>
@@ -23566,7 +23842,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" s="23" t="str">
         <f>generator_info!C$2</f>
@@ -23606,7 +23882,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" s="23" t="str">
         <f>generator_info!C$2</f>
@@ -23646,7 +23922,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" s="23" t="str">
         <f>generator_info!C$2</f>
@@ -23686,7 +23962,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" s="23" t="str">
         <f>generator_info!C$2</f>
@@ -23726,7 +24002,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="str">
         <f>generator_info!C$3</f>
@@ -23768,7 +24044,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" s="23" t="str">
         <f>generator_info!C$3</f>
@@ -23810,7 +24086,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" s="23" t="str">
         <f>generator_info!C$3</f>
@@ -23852,7 +24128,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" s="23" t="str">
         <f>generator_info!C$3</f>
@@ -23894,7 +24170,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" s="23" t="str">
         <f>generator_info!C$3</f>
@@ -23936,7 +24212,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" s="23" t="str">
         <f>generator_info!C$3</f>
@@ -23978,7 +24254,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" s="23" t="str">
         <f>generator_info!C$3</f>
@@ -24020,7 +24296,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" s="23" t="str">
         <f>generator_info!C$3</f>
@@ -24062,7 +24338,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" s="23" t="str">
         <f>generator_info!C$3</f>
@@ -24104,7 +24380,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="str">
         <f>generator_info!C6</f>
@@ -24140,7 +24416,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="str">
         <f>generator_info!C7</f>
@@ -24178,7 +24454,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" s="23" t="str">
         <f>generator_info!C$5</f>
@@ -24218,7 +24494,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" s="23" t="str">
         <f>generator_info!C$5</f>
@@ -24258,7 +24534,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" s="23" t="str">
         <f>generator_info!C$5</f>
@@ -24298,7 +24574,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" s="23" t="str">
         <f>generator_info!C$5</f>
@@ -24338,7 +24614,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" s="23" t="str">
         <f>generator_info!C$5</f>
@@ -24378,7 +24654,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" s="23" t="str">
         <f>generator_info!C$5</f>
@@ -24418,7 +24694,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" s="23" t="str">
         <f>generator_info!C$5</f>
@@ -24458,7 +24734,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="str">
         <f>generator_info!C$4</f>
@@ -24500,7 +24776,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B35" s="23" t="str">
         <f>generator_info!C$4</f>
@@ -24542,7 +24818,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" s="23" t="str">
         <f>generator_info!C$4</f>
@@ -24584,7 +24860,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" s="23" t="str">
         <f>generator_info!C$4</f>
@@ -24626,7 +24902,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" s="23" t="str">
         <f>generator_info!C$4</f>
@@ -24668,7 +24944,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" s="23" t="str">
         <f>generator_info!C$4</f>
@@ -24710,7 +24986,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" s="23" t="str">
         <f>generator_info!C$4</f>
@@ -24752,7 +25028,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="str">
         <f>generator_info!C8</f>
@@ -24792,7 +25068,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B42" s="23" t="str">
         <f>B41</f>
@@ -24833,7 +25109,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B43" s="23" t="str">
         <f t="shared" ref="B43:B49" si="33">B42</f>
@@ -24874,7 +25150,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44" s="23" t="str">
         <f t="shared" si="33"/>
@@ -24915,7 +25191,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" s="23" t="str">
         <f t="shared" si="33"/>
@@ -24956,7 +25232,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B46" s="23" t="str">
         <f t="shared" si="33"/>
@@ -24997,7 +25273,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B47" s="23" t="str">
         <f t="shared" si="33"/>
@@ -25038,7 +25314,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B48" s="23" t="str">
         <f t="shared" si="33"/>
@@ -25079,7 +25355,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B49" s="23" t="str">
         <f t="shared" si="33"/>
@@ -25120,7 +25396,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B50" t="str">
         <f>generator_info!C9</f>
@@ -25163,7 +25439,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B51" t="str">
         <f>B50</f>
@@ -25206,7 +25482,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B52" s="23" t="str">
         <f t="shared" ref="B52:B58" si="41">B51</f>
@@ -25249,7 +25525,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53" s="23" t="str">
         <f t="shared" si="41"/>
@@ -25292,7 +25568,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B54" s="23" t="str">
         <f t="shared" si="41"/>
@@ -25335,7 +25611,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B55" s="23" t="str">
         <f t="shared" si="41"/>
@@ -25378,7 +25654,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B56" s="23" t="str">
         <f t="shared" si="41"/>
@@ -25421,7 +25697,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B57" s="23" t="str">
         <f t="shared" si="41"/>
@@ -25464,7 +25740,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B58" s="23" t="str">
         <f t="shared" si="41"/>
@@ -25507,7 +25783,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" s="23" t="str">
         <f>generator_info!C12</f>
@@ -25546,7 +25822,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B60" s="23" t="str">
         <f>generator_info!C13</f>
@@ -25586,7 +25862,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B61" t="str">
         <f>generator_info!C11</f>
@@ -25629,7 +25905,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B62" t="str">
         <f>B61</f>
@@ -25672,7 +25948,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B63" s="23" t="str">
         <f t="shared" ref="B63:B67" si="54">B62</f>
@@ -25715,7 +25991,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B64" s="23" t="str">
         <f t="shared" si="54"/>
@@ -25758,7 +26034,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B65" s="23" t="str">
         <f t="shared" si="54"/>
@@ -25801,7 +26077,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B66" s="23" t="str">
         <f t="shared" si="54"/>
@@ -25844,7 +26120,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B67" s="23" t="str">
         <f t="shared" si="54"/>
@@ -25887,7 +26163,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B68" s="23" t="str">
         <f>generator_info!C10</f>
@@ -25930,7 +26206,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B69" s="23" t="str">
         <f>B68</f>
@@ -25973,7 +26249,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B70" s="23" t="str">
         <f t="shared" ref="B70:B74" si="63">B69</f>
@@ -26016,7 +26292,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B71" s="23" t="str">
         <f t="shared" si="63"/>
@@ -26059,7 +26335,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B72" s="23" t="str">
         <f t="shared" si="63"/>
@@ -26102,7 +26378,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B73" s="23" t="str">
         <f t="shared" si="63"/>
@@ -26145,7 +26421,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B74" s="23" t="str">
         <f t="shared" si="63"/>
@@ -26188,7 +26464,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B75" s="23" t="str">
         <f>generator_info!C16</f>
@@ -26228,7 +26504,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B76" s="23" t="str">
         <f>generator_info!C17</f>
@@ -26268,7 +26544,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B77" t="str">
         <f>generator_info!C14</f>
@@ -26311,7 +26587,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B78" t="str">
         <f>B77</f>
@@ -26354,7 +26630,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B79" s="23" t="str">
         <f t="shared" ref="B79:B83" si="71">B78</f>
@@ -26397,7 +26673,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B80" s="23" t="str">
         <f t="shared" si="71"/>
@@ -26440,7 +26716,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B81" s="23" t="str">
         <f t="shared" si="71"/>
@@ -26483,7 +26759,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B82" s="23" t="str">
         <f t="shared" si="71"/>
@@ -26526,7 +26802,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B83" s="23" t="str">
         <f t="shared" si="71"/>
@@ -26569,7 +26845,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B84" s="23" t="str">
         <f>B83</f>
@@ -26612,7 +26888,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B85" s="23" t="str">
         <f t="shared" ref="B85" si="74">B84</f>
@@ -26655,7 +26931,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B86" t="str">
         <f>generator_info!C15</f>
@@ -26698,7 +26974,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B87" t="str">
         <f>B86</f>
@@ -26741,7 +27017,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B88" s="23" t="str">
         <f t="shared" ref="B88:B92" si="78">B87</f>
@@ -26784,7 +27060,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B89" s="23" t="str">
         <f t="shared" si="78"/>
@@ -26827,7 +27103,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B90" s="23" t="str">
         <f t="shared" si="78"/>
@@ -26870,7 +27146,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B91" s="23" t="str">
         <f t="shared" si="78"/>
@@ -26913,7 +27189,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B92" s="23" t="str">
         <f t="shared" si="78"/>
@@ -26956,7 +27232,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B93" s="23" t="str">
         <f>generator_info!C20</f>
@@ -26993,7 +27269,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B94" s="23" t="str">
         <f>generator_info!C21</f>
@@ -27031,7 +27307,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B95" s="23" t="str">
         <f>generator_info!C18</f>
@@ -27074,7 +27350,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B96" s="23" t="str">
         <f>B95</f>
@@ -27117,7 +27393,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B97" s="23" t="str">
         <f t="shared" ref="B97:B103" si="84">B96</f>
@@ -27160,7 +27436,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B98" s="23" t="str">
         <f t="shared" si="84"/>
@@ -27203,7 +27479,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B99" s="23" t="str">
         <f t="shared" si="84"/>
@@ -27246,7 +27522,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B100" s="23" t="str">
         <f t="shared" si="84"/>
@@ -27289,7 +27565,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B101" s="23" t="str">
         <f t="shared" si="84"/>
@@ -27332,7 +27608,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B102" s="23" t="str">
         <f t="shared" si="84"/>
@@ -27375,7 +27651,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B103" s="23" t="str">
         <f t="shared" si="84"/>
@@ -27418,7 +27694,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B104" s="23" t="str">
         <f>generator_info!C19</f>
@@ -27450,7 +27726,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B105" s="23" t="str">
         <f>B104</f>
@@ -27483,7 +27759,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B106" s="23" t="str">
         <f t="shared" ref="B106:B110" si="91">B105</f>
@@ -27516,7 +27792,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B107" s="23" t="str">
         <f t="shared" si="91"/>
@@ -27549,7 +27825,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B108" s="23" t="str">
         <f t="shared" si="91"/>
@@ -27582,7 +27858,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B109" s="23" t="str">
         <f t="shared" si="91"/>
@@ -27615,7 +27891,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B110" s="23" t="str">
         <f t="shared" si="91"/>
@@ -27648,7 +27924,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B111" s="23" t="str">
         <f>generator_info!C22</f>
@@ -27689,7 +27965,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B112" s="23" t="str">
         <f>generator_info!C23</f>
@@ -27730,7 +28006,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B113" t="str">
         <f>generator_info!C24</f>
@@ -27770,7 +28046,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B114" t="str">
         <f>B113</f>
@@ -27810,7 +28086,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B115" s="23" t="str">
         <f t="shared" ref="B115:B121" si="97">B114</f>
@@ -27850,7 +28126,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B116" s="23" t="str">
         <f t="shared" si="97"/>
@@ -27890,7 +28166,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B117" s="23" t="str">
         <f t="shared" si="97"/>
@@ -27930,7 +28206,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B118" s="23" t="str">
         <f t="shared" si="97"/>
@@ -27970,7 +28246,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B119" s="23" t="str">
         <f t="shared" si="97"/>
@@ -28010,7 +28286,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B120" s="23" t="str">
         <f t="shared" si="97"/>
@@ -28050,7 +28326,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B121" s="23" t="str">
         <f t="shared" si="97"/>
@@ -28090,7 +28366,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B122" s="23" t="str">
         <f>generator_info!C25</f>
@@ -28131,7 +28407,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B123" t="str">
         <f>B122</f>
@@ -28172,7 +28448,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B124" s="23" t="str">
         <f t="shared" ref="B124:B128" si="103">B123</f>
@@ -28213,7 +28489,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B125" s="23" t="str">
         <f t="shared" si="103"/>
@@ -28254,7 +28530,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B126" s="23" t="str">
         <f t="shared" si="103"/>
@@ -28295,7 +28571,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B127" s="23" t="str">
         <f t="shared" si="103"/>
@@ -28336,7 +28612,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B128" s="23" t="str">
         <f t="shared" si="103"/>
@@ -28377,7 +28653,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B129" t="str">
         <f>generator_info!C26</f>
@@ -28420,7 +28696,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B130" t="str">
         <f>B129</f>
@@ -28463,7 +28739,7 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B131" s="23" t="str">
         <f t="shared" ref="B131:B137" si="110">B130</f>
@@ -28506,7 +28782,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B132" s="23" t="str">
         <f t="shared" si="110"/>
@@ -28549,7 +28825,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B133" s="23" t="str">
         <f t="shared" si="110"/>
@@ -28592,7 +28868,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B134" s="23" t="str">
         <f t="shared" si="110"/>
@@ -28635,7 +28911,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B135" s="23" t="str">
         <f t="shared" si="110"/>
@@ -28678,7 +28954,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B136" s="23" t="str">
         <f t="shared" si="110"/>
@@ -28721,7 +28997,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B137" s="23" t="str">
         <f t="shared" si="110"/>
@@ -28764,7 +29040,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B138" t="str">
         <f>generator_info!C27</f>
@@ -28807,7 +29083,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B139" t="str">
         <f>B138</f>
@@ -28850,7 +29126,7 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B140" s="23" t="str">
         <f t="shared" ref="B140:B144" si="121">B139</f>
@@ -28893,7 +29169,7 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B141" s="23" t="str">
         <f t="shared" si="121"/>
@@ -28936,7 +29212,7 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B142" s="23" t="str">
         <f t="shared" si="121"/>
@@ -28979,7 +29255,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B143" s="23" t="str">
         <f t="shared" si="121"/>
@@ -29022,7 +29298,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B144" s="23" t="str">
         <f t="shared" si="121"/>
@@ -29065,7 +29341,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B145" s="23" t="str">
         <f>generator_info!C28</f>
@@ -29102,7 +29378,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B146" s="23" t="str">
         <f>generator_info!C29</f>
@@ -29142,7 +29418,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B147" t="str">
         <f>generator_info!C30</f>
@@ -29182,7 +29458,7 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B148" t="str">
         <f>B147</f>
@@ -29222,7 +29498,7 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B149" s="23" t="str">
         <f t="shared" ref="B149:B155" si="123">B148</f>
@@ -29262,7 +29538,7 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B150" s="23" t="str">
         <f t="shared" si="123"/>
@@ -29302,7 +29578,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B151" s="23" t="str">
         <f t="shared" si="123"/>
@@ -29342,7 +29618,7 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B152" s="23" t="str">
         <f t="shared" si="123"/>
@@ -29382,7 +29658,7 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B153" s="23" t="str">
         <f t="shared" si="123"/>
@@ -29422,7 +29698,7 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B154" s="23" t="str">
         <f t="shared" si="123"/>
@@ -29462,7 +29738,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B155" s="23" t="str">
         <f t="shared" si="123"/>
@@ -29502,7 +29778,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B156" t="str">
         <f>generator_info!C31</f>
@@ -29542,7 +29818,7 @@
     </row>
     <row r="157" spans="1:11" s="23" customFormat="1">
       <c r="A157" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B157" s="23" t="str">
         <f>B156</f>
@@ -29582,7 +29858,7 @@
     </row>
     <row r="158" spans="1:11" s="23" customFormat="1">
       <c r="A158" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B158" s="23" t="str">
         <f t="shared" ref="B158:B162" si="131">B157</f>
@@ -29622,7 +29898,7 @@
     </row>
     <row r="159" spans="1:11" s="23" customFormat="1">
       <c r="A159" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B159" s="23" t="str">
         <f t="shared" si="131"/>
@@ -29662,7 +29938,7 @@
     </row>
     <row r="160" spans="1:11" s="23" customFormat="1">
       <c r="A160" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B160" s="23" t="str">
         <f t="shared" si="131"/>
@@ -29702,7 +29978,7 @@
     </row>
     <row r="161" spans="1:11" s="23" customFormat="1">
       <c r="A161" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B161" s="23" t="str">
         <f t="shared" si="131"/>
@@ -29742,7 +30018,7 @@
     </row>
     <row r="162" spans="1:11" s="23" customFormat="1">
       <c r="A162" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B162" s="23" t="str">
         <f t="shared" si="131"/>
@@ -29782,7 +30058,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B163" t="str">
         <f>generator_info!C32</f>
@@ -29822,7 +30098,7 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B164" t="str">
         <f>B163</f>
@@ -29863,7 +30139,7 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B165" s="23" t="str">
         <f t="shared" ref="B165:B170" si="137">B164</f>
@@ -29904,7 +30180,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B166" s="23" t="str">
         <f t="shared" si="137"/>
@@ -29945,7 +30221,7 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B167" s="23" t="str">
         <f t="shared" si="137"/>
@@ -29986,7 +30262,7 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B168" s="23" t="str">
         <f t="shared" si="137"/>
@@ -30027,7 +30303,7 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B169" s="23" t="str">
         <f t="shared" si="137"/>
@@ -30068,7 +30344,7 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B170" s="23" t="str">
         <f t="shared" si="137"/>
@@ -30109,7 +30385,7 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B171" s="23" t="str">
         <f>B170</f>
@@ -30150,7 +30426,7 @@
     </row>
     <row r="172" spans="1:11" s="23" customFormat="1">
       <c r="A172" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B172" s="23" t="str">
         <f>generator_info!C33</f>
@@ -30194,7 +30470,7 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B173" t="str">
         <f>B172</f>
@@ -30238,7 +30514,7 @@
     </row>
     <row r="174" spans="1:11" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A174" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B174" s="23" t="str">
         <f t="shared" ref="B174:B178" si="150">B173</f>
@@ -30282,7 +30558,7 @@
     </row>
     <row r="175" spans="1:11" s="23" customFormat="1">
       <c r="A175" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B175" s="23" t="str">
         <f t="shared" si="150"/>
@@ -30326,7 +30602,7 @@
     </row>
     <row r="176" spans="1:11" s="23" customFormat="1">
       <c r="A176" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B176" s="23" t="str">
         <f t="shared" si="150"/>
@@ -30370,7 +30646,7 @@
     </row>
     <row r="177" spans="1:11" s="23" customFormat="1">
       <c r="A177" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B177" s="23" t="str">
         <f t="shared" si="150"/>
@@ -30414,7 +30690,7 @@
     </row>
     <row r="178" spans="1:11" s="23" customFormat="1">
       <c r="A178" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B178" s="23" t="str">
         <f t="shared" si="150"/>
@@ -30458,7 +30734,7 @@
     </row>
     <row r="179" spans="1:11" s="23" customFormat="1">
       <c r="A179" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B179" s="23" t="str">
         <f>generator_info!C34</f>
@@ -30495,7 +30771,7 @@
     </row>
     <row r="180" spans="1:11" s="23" customFormat="1">
       <c r="A180" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B180" s="23" t="str">
         <f>generator_info!C35</f>
@@ -30536,7 +30812,7 @@
     </row>
     <row r="181" spans="1:11" s="23" customFormat="1">
       <c r="A181" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B181" s="23" t="str">
         <f>generator_info!C36</f>
@@ -30581,7 +30857,7 @@
     </row>
     <row r="182" spans="1:11" s="23" customFormat="1">
       <c r="A182" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B182" s="23" t="str">
         <f>B181</f>
@@ -30626,7 +30902,7 @@
     </row>
     <row r="183" spans="1:11" s="23" customFormat="1">
       <c r="A183" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B183" s="23" t="str">
         <f t="shared" ref="B183:B189" si="159">B182</f>
@@ -30671,7 +30947,7 @@
     </row>
     <row r="184" spans="1:11" s="23" customFormat="1">
       <c r="A184" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B184" s="23" t="str">
         <f t="shared" si="159"/>
@@ -30716,7 +30992,7 @@
     </row>
     <row r="185" spans="1:11" s="23" customFormat="1">
       <c r="A185" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B185" s="23" t="str">
         <f t="shared" si="159"/>
@@ -30761,7 +31037,7 @@
     </row>
     <row r="186" spans="1:11" s="23" customFormat="1">
       <c r="A186" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B186" s="23" t="str">
         <f t="shared" si="159"/>
@@ -30806,7 +31082,7 @@
     </row>
     <row r="187" spans="1:11" s="23" customFormat="1">
       <c r="A187" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B187" s="23" t="str">
         <f t="shared" si="159"/>
@@ -30851,7 +31127,7 @@
     </row>
     <row r="188" spans="1:11" s="23" customFormat="1">
       <c r="A188" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B188" s="23" t="str">
         <f t="shared" si="159"/>
@@ -30896,7 +31172,7 @@
     </row>
     <row r="189" spans="1:11" s="23" customFormat="1">
       <c r="A189" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B189" s="23" t="str">
         <f t="shared" si="159"/>
@@ -30941,7 +31217,7 @@
     </row>
     <row r="190" spans="1:11" s="23" customFormat="1">
       <c r="A190" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B190" s="23" t="str">
         <f>generator_info!C37</f>
@@ -30986,7 +31262,7 @@
     </row>
     <row r="191" spans="1:11" s="23" customFormat="1">
       <c r="A191" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B191" s="23" t="str">
         <f>B190</f>
@@ -31031,7 +31307,7 @@
     </row>
     <row r="192" spans="1:11" s="23" customFormat="1">
       <c r="A192" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B192" s="23" t="str">
         <f t="shared" ref="B192:B196" si="173">B191</f>
@@ -31076,7 +31352,7 @@
     </row>
     <row r="193" spans="1:11" s="23" customFormat="1">
       <c r="A193" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B193" s="23" t="str">
         <f t="shared" si="173"/>
@@ -31121,7 +31397,7 @@
     </row>
     <row r="194" spans="1:11" s="23" customFormat="1">
       <c r="A194" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B194" s="23" t="str">
         <f t="shared" si="173"/>
@@ -31166,7 +31442,7 @@
     </row>
     <row r="195" spans="1:11" s="23" customFormat="1">
       <c r="A195" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B195" s="23" t="str">
         <f t="shared" si="173"/>
@@ -31211,7 +31487,7 @@
     </row>
     <row r="196" spans="1:11" s="23" customFormat="1">
       <c r="A196" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B196" s="23" t="str">
         <f t="shared" si="173"/>
@@ -31256,7 +31532,7 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B197" s="23" t="str">
         <f>generator_info!C38</f>
@@ -31296,7 +31572,7 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B198" t="str">
         <f>B197</f>
@@ -31336,7 +31612,7 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B199" s="23" t="str">
         <f t="shared" ref="B199:B205" si="175">B198</f>
@@ -31376,7 +31652,7 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B200" s="23" t="str">
         <f t="shared" si="175"/>
@@ -31416,7 +31692,7 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B201" s="23" t="str">
         <f t="shared" si="175"/>
@@ -31456,7 +31732,7 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B202" s="23" t="str">
         <f t="shared" si="175"/>
@@ -31496,7 +31772,7 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B203" s="23" t="str">
         <f t="shared" si="175"/>
@@ -31536,7 +31812,7 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B204" s="23" t="str">
         <f t="shared" si="175"/>
@@ -31576,7 +31852,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B205" s="23" t="str">
         <f t="shared" si="175"/>
@@ -31616,7 +31892,7 @@
     </row>
     <row r="206" spans="1:11" s="23" customFormat="1">
       <c r="A206" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B206" s="23" t="str">
         <f>generator_info!C39</f>
@@ -31641,7 +31917,7 @@
     </row>
     <row r="207" spans="1:11" s="23" customFormat="1">
       <c r="A207" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B207" s="23" t="str">
         <f>B206</f>
@@ -31666,7 +31942,7 @@
     </row>
     <row r="208" spans="1:11" s="23" customFormat="1">
       <c r="A208" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B208" s="23" t="str">
         <f t="shared" ref="B208:B212" si="178">B207</f>
@@ -31691,7 +31967,7 @@
     </row>
     <row r="209" spans="1:11" s="23" customFormat="1">
       <c r="A209" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B209" s="23" t="str">
         <f t="shared" si="178"/>
@@ -31716,7 +31992,7 @@
     </row>
     <row r="210" spans="1:11" s="23" customFormat="1">
       <c r="A210" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B210" s="23" t="str">
         <f t="shared" si="178"/>
@@ -31741,7 +32017,7 @@
     </row>
     <row r="211" spans="1:11" s="23" customFormat="1">
       <c r="A211" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B211" s="23" t="str">
         <f t="shared" si="178"/>
@@ -31766,7 +32042,7 @@
     </row>
     <row r="212" spans="1:11" s="23" customFormat="1">
       <c r="A212" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B212" s="23" t="str">
         <f t="shared" si="178"/>
@@ -31791,7 +32067,7 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B213" s="23" t="str">
         <f>generator_info!C40</f>
@@ -31834,7 +32110,7 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B214" t="str">
         <f>B213</f>
@@ -31877,7 +32153,7 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B215" s="23" t="str">
         <f t="shared" ref="B215:B221" si="181">B214</f>
@@ -31920,7 +32196,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B216" s="23" t="str">
         <f t="shared" si="181"/>
@@ -31963,7 +32239,7 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B217" s="23" t="str">
         <f t="shared" si="181"/>
@@ -32006,7 +32282,7 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B218" s="23" t="str">
         <f t="shared" si="181"/>
@@ -32049,7 +32325,7 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B219" s="23" t="str">
         <f t="shared" si="181"/>
@@ -32092,7 +32368,7 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B220" s="23" t="str">
         <f t="shared" si="181"/>
@@ -32135,7 +32411,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B221" s="23" t="str">
         <f t="shared" si="181"/>
@@ -32178,7 +32454,7 @@
     </row>
     <row r="222" spans="1:11" s="23" customFormat="1">
       <c r="A222" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B222" s="23" t="str">
         <f>generator_info!C41</f>
@@ -32203,7 +32479,7 @@
     </row>
     <row r="223" spans="1:11" s="23" customFormat="1">
       <c r="A223" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B223" s="23" t="str">
         <f>B222</f>
@@ -32228,7 +32504,7 @@
     </row>
     <row r="224" spans="1:11" s="23" customFormat="1">
       <c r="A224" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B224" s="23" t="str">
         <f t="shared" ref="B224:B228" si="192">B223</f>
@@ -32253,7 +32529,7 @@
     </row>
     <row r="225" spans="1:11" s="23" customFormat="1">
       <c r="A225" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B225" s="23" t="str">
         <f t="shared" si="192"/>
@@ -32278,7 +32554,7 @@
     </row>
     <row r="226" spans="1:11" s="23" customFormat="1">
       <c r="A226" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B226" s="23" t="str">
         <f t="shared" si="192"/>
@@ -32303,7 +32579,7 @@
     </row>
     <row r="227" spans="1:11" s="23" customFormat="1">
       <c r="A227" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B227" s="23" t="str">
         <f t="shared" si="192"/>
@@ -32328,7 +32604,7 @@
     </row>
     <row r="228" spans="1:11" s="23" customFormat="1">
       <c r="A228" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B228" s="23" t="str">
         <f t="shared" si="192"/>
@@ -32353,7 +32629,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B229" s="23" t="str">
         <f>generator_info!C42</f>
@@ -32393,7 +32669,7 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B230" s="23" t="str">
         <f>generator_info!C43</f>
@@ -32433,7 +32709,7 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B231" t="str">
         <f>generator_info!C44</f>
@@ -32454,7 +32730,7 @@
     </row>
     <row r="232" spans="1:11" s="23" customFormat="1">
       <c r="A232" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B232" s="23" t="str">
         <f>generator_info!C45</f>
@@ -32495,7 +32771,7 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B233" t="str">
         <f>generator_info!C46</f>
@@ -32540,7 +32816,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B234" t="str">
         <f>B233</f>
@@ -32585,7 +32861,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B235" s="23" t="str">
         <f t="shared" ref="B235:B241" si="198">B234</f>
@@ -32630,7 +32906,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B236" s="23" t="str">
         <f t="shared" si="198"/>
@@ -32675,7 +32951,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B237" s="23" t="str">
         <f t="shared" si="198"/>
@@ -32720,7 +32996,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B238" s="23" t="str">
         <f t="shared" si="198"/>
@@ -32765,7 +33041,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B239" s="23" t="str">
         <f t="shared" si="198"/>
@@ -32810,7 +33086,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B240" s="23" t="str">
         <f t="shared" si="198"/>
@@ -32855,7 +33131,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B241" s="23" t="str">
         <f t="shared" si="198"/>
@@ -32900,7 +33176,7 @@
     </row>
     <row r="242" spans="1:11" s="23" customFormat="1">
       <c r="A242" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B242" s="23" t="str">
         <f>generator_info!C47</f>
@@ -32925,7 +33201,7 @@
     </row>
     <row r="243" spans="1:11" s="23" customFormat="1">
       <c r="A243" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B243" s="23" t="str">
         <f>B242</f>
@@ -32950,7 +33226,7 @@
     </row>
     <row r="244" spans="1:11" s="23" customFormat="1">
       <c r="A244" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B244" s="23" t="str">
         <f t="shared" ref="B244:B248" si="209">B243</f>
@@ -32975,7 +33251,7 @@
     </row>
     <row r="245" spans="1:11" s="23" customFormat="1">
       <c r="A245" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B245" s="23" t="str">
         <f t="shared" si="209"/>
@@ -33000,7 +33276,7 @@
     </row>
     <row r="246" spans="1:11" s="23" customFormat="1">
       <c r="A246" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B246" s="23" t="str">
         <f t="shared" si="209"/>
@@ -33025,7 +33301,7 @@
     </row>
     <row r="247" spans="1:11" s="23" customFormat="1">
       <c r="A247" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B247" s="23" t="str">
         <f t="shared" si="209"/>
@@ -33050,7 +33326,7 @@
     </row>
     <row r="248" spans="1:11" s="23" customFormat="1">
       <c r="A248" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B248" s="23" t="str">
         <f t="shared" si="209"/>
@@ -33075,7 +33351,7 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B249" t="str">
         <f>generator_info!C48</f>
@@ -33111,7 +33387,7 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B250" t="str">
         <f>generator_info!C49</f>
@@ -33154,7 +33430,7 @@
     </row>
     <row r="251" spans="1:11" ht="12" customHeight="1">
       <c r="A251" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B251" t="str">
         <f>B250</f>
@@ -33199,7 +33475,7 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B252" s="23" t="str">
         <f t="shared" ref="B252:B257" si="222">B251</f>
@@ -33244,7 +33520,7 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B253" s="23" t="str">
         <f t="shared" si="222"/>
@@ -33289,7 +33565,7 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B254" s="23" t="str">
         <f t="shared" si="222"/>
@@ -33334,7 +33610,7 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B255" s="23" t="str">
         <f t="shared" si="222"/>
@@ -33379,7 +33655,7 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B256" s="23" t="str">
         <f t="shared" si="222"/>
@@ -33424,7 +33700,7 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B257" s="23" t="str">
         <f t="shared" si="222"/>
@@ -33469,7 +33745,7 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B258" s="23" t="str">
         <f t="shared" ref="B258" si="226">B257</f>
@@ -33514,7 +33790,7 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B259" t="str">
         <f>generator_info!C50</f>
@@ -33552,7 +33828,7 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B260" t="str">
         <f>generator_info!C51</f>
@@ -33594,7 +33870,7 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B261" t="str">
         <f>B260</f>
@@ -33636,7 +33912,7 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B262" s="23" t="str">
         <f t="shared" ref="B262:B268" si="232">B261</f>
@@ -33678,7 +33954,7 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B263" s="23" t="str">
         <f t="shared" si="232"/>
@@ -33720,7 +33996,7 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B264" s="23" t="str">
         <f t="shared" si="232"/>
@@ -33762,7 +34038,7 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B265" s="23" t="str">
         <f t="shared" si="232"/>
@@ -33804,7 +34080,7 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B266" s="23" t="str">
         <f t="shared" si="232"/>
@@ -33846,7 +34122,7 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B267" s="23" t="str">
         <f t="shared" si="232"/>
@@ -33888,7 +34164,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B268" s="23" t="str">
         <f t="shared" si="232"/>
@@ -33930,7 +34206,7 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B269" s="23" t="str">
         <f>generator_info!C52</f>
@@ -33972,7 +34248,7 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B270" t="str">
         <f>B269</f>
@@ -34014,7 +34290,7 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B271" s="23" t="str">
         <f t="shared" ref="B271:B277" si="237">B270</f>
@@ -34056,7 +34332,7 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B272" s="23" t="str">
         <f t="shared" si="237"/>
@@ -34098,7 +34374,7 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B273" s="23" t="str">
         <f t="shared" si="237"/>
@@ -34140,7 +34416,7 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B274" s="23" t="str">
         <f t="shared" si="237"/>
@@ -34182,7 +34458,7 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B275" s="23" t="str">
         <f t="shared" si="237"/>
@@ -34224,7 +34500,7 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B276" s="23" t="str">
         <f t="shared" si="237"/>
@@ -34266,7 +34542,7 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B277" s="23" t="str">
         <f t="shared" si="237"/>
@@ -34308,7 +34584,7 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B278" s="23" t="str">
         <f>generator_info!C53</f>
@@ -34350,7 +34626,7 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B279" s="23" t="str">
         <f>B278</f>
@@ -34392,7 +34668,7 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B280" s="23" t="str">
         <f t="shared" ref="B280:B286" si="245">B279</f>
@@ -34434,7 +34710,7 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B281" s="23" t="str">
         <f t="shared" si="245"/>
@@ -34476,7 +34752,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B282" s="23" t="str">
         <f t="shared" si="245"/>
@@ -34518,7 +34794,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B283" s="23" t="str">
         <f t="shared" si="245"/>
@@ -34560,7 +34836,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B284" s="23" t="str">
         <f t="shared" si="245"/>
@@ -34602,7 +34878,7 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B285" s="23" t="str">
         <f t="shared" si="245"/>
@@ -34644,7 +34920,7 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B286" s="23" t="str">
         <f t="shared" si="245"/>
@@ -34686,7 +34962,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B287" s="23" t="str">
         <f>generator_info!C54</f>
@@ -34728,7 +35004,7 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B288" t="str">
         <f>B287</f>
@@ -34770,7 +35046,7 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B289" s="23" t="str">
         <f t="shared" ref="B289:B295" si="250">B288</f>
@@ -34812,7 +35088,7 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B290" s="23" t="str">
         <f t="shared" si="250"/>
@@ -34854,7 +35130,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B291" s="23" t="str">
         <f t="shared" si="250"/>
@@ -34896,7 +35172,7 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B292" s="23" t="str">
         <f t="shared" si="250"/>
@@ -34938,7 +35214,7 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B293" s="23" t="str">
         <f t="shared" si="250"/>
@@ -34980,7 +35256,7 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B294" s="23" t="str">
         <f t="shared" si="250"/>
@@ -35022,7 +35298,7 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B295" s="23" t="str">
         <f t="shared" si="250"/>
@@ -35064,7 +35340,7 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B296" s="23" t="str">
         <f>generator_info!C55</f>
@@ -35106,7 +35382,7 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B297" s="23" t="str">
         <f>B296</f>
@@ -35148,7 +35424,7 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B298" s="23" t="str">
         <f t="shared" ref="B298:B304" si="259">B297</f>
@@ -35190,7 +35466,7 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B299" s="23" t="str">
         <f t="shared" si="259"/>
@@ -35232,7 +35508,7 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B300" s="23" t="str">
         <f t="shared" si="259"/>
@@ -35274,7 +35550,7 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B301" s="23" t="str">
         <f t="shared" si="259"/>
@@ -35316,7 +35592,7 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B302" s="23" t="str">
         <f t="shared" si="259"/>
@@ -35358,7 +35634,7 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B303" s="23" t="str">
         <f t="shared" si="259"/>
@@ -35400,7 +35676,7 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B304" s="23" t="str">
         <f t="shared" si="259"/>
@@ -35442,7 +35718,7 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B305" s="23" t="str">
         <f>generator_info!C56</f>
@@ -35484,7 +35760,7 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B306" t="str">
         <f>B305</f>
@@ -35526,7 +35802,7 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B307" s="23" t="str">
         <f t="shared" ref="B307:B313" si="266">B306</f>
@@ -35568,7 +35844,7 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B308" s="23" t="str">
         <f t="shared" si="266"/>
@@ -35610,7 +35886,7 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B309" s="23" t="str">
         <f t="shared" si="266"/>
@@ -35652,7 +35928,7 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B310" s="23" t="str">
         <f t="shared" si="266"/>
@@ -35694,7 +35970,7 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B311" s="23" t="str">
         <f t="shared" si="266"/>
@@ -35736,7 +36012,7 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B312" s="23" t="str">
         <f t="shared" si="266"/>
@@ -35778,7 +36054,7 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B313" s="23" t="str">
         <f t="shared" si="266"/>
@@ -35820,7 +36096,7 @@
     </row>
     <row r="314" spans="1:11" s="23" customFormat="1">
       <c r="A314" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B314" s="23" t="str">
         <f>generator_info!C57</f>
@@ -35858,7 +36134,7 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B315" t="str">
         <f>generator_info!C58</f>
@@ -35900,7 +36176,7 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B316" t="str">
         <f>B315</f>
@@ -35942,7 +36218,7 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B317" s="23" t="str">
         <f t="shared" ref="B317:B323" si="280">B316</f>
@@ -35984,7 +36260,7 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B318" s="23" t="str">
         <f t="shared" si="280"/>
@@ -36026,7 +36302,7 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B319" s="23" t="str">
         <f t="shared" si="280"/>
@@ -36068,7 +36344,7 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B320" s="23" t="str">
         <f t="shared" si="280"/>
@@ -36110,7 +36386,7 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B321" s="23" t="str">
         <f t="shared" si="280"/>
@@ -36152,7 +36428,7 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B322" s="23" t="str">
         <f t="shared" si="280"/>
@@ -36194,7 +36470,7 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B323" s="23" t="str">
         <f t="shared" si="280"/>
@@ -36236,7 +36512,7 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B324" t="str">
         <f>generator_info!C59</f>
@@ -36278,7 +36554,7 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B325" t="str">
         <f>B324</f>
@@ -36320,7 +36596,7 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B326" s="23" t="str">
         <f t="shared" ref="B326:B332" si="282">B325</f>
@@ -36362,7 +36638,7 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B327" s="23" t="str">
         <f t="shared" si="282"/>
@@ -36404,7 +36680,7 @@
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B328" s="23" t="str">
         <f t="shared" si="282"/>
@@ -36446,7 +36722,7 @@
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B329" s="23" t="str">
         <f t="shared" si="282"/>
@@ -36488,7 +36764,7 @@
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B330" s="23" t="str">
         <f t="shared" si="282"/>
@@ -36530,7 +36806,7 @@
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B331" s="23" t="str">
         <f t="shared" si="282"/>
@@ -36572,7 +36848,7 @@
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B332" s="23" t="str">
         <f t="shared" si="282"/>
@@ -36614,7 +36890,7 @@
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B333" t="str">
         <f>generator_info!C60</f>
@@ -36652,7 +36928,7 @@
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B334" t="str">
         <f>generator_info!C61</f>
@@ -36690,7 +36966,7 @@
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B335" t="str">
         <f>generator_info!C62</f>
@@ -36726,13 +37002,13 @@
         <v>10788</v>
       </c>
       <c r="K335" s="23">
-        <f t="shared" ref="K335:K344" si="294">H335*$E335</f>
+        <f t="shared" ref="K335:K343" si="294">H335*$E335</f>
         <v>1.4415000000000002</v>
       </c>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B336" t="str">
         <f>B335</f>
@@ -36774,7 +37050,7 @@
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B337" s="23" t="str">
         <f t="shared" ref="B337:B343" si="295">B336</f>
@@ -36816,7 +37092,7 @@
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B338" s="23" t="str">
         <f t="shared" si="295"/>
@@ -36858,7 +37134,7 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B339" s="23" t="str">
         <f t="shared" si="295"/>
@@ -36900,7 +37176,7 @@
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B340" s="23" t="str">
         <f t="shared" si="295"/>
@@ -36942,7 +37218,7 @@
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B341" s="23" t="str">
         <f t="shared" si="295"/>
@@ -36984,7 +37260,7 @@
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B342" s="23" t="str">
         <f t="shared" si="295"/>
@@ -37026,7 +37302,7 @@
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B343" s="23" t="str">
         <f t="shared" si="295"/>
@@ -37068,7 +37344,7 @@
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B344" s="23" t="str">
         <f>generator_info!C63</f>
@@ -37092,9 +37368,6 @@
       <c r="G344">
         <v>25200</v>
       </c>
-      <c r="H344">
-        <v>59</v>
-      </c>
       <c r="I344" s="23">
         <f t="shared" si="292"/>
         <v>3710700</v>
@@ -37104,13 +37377,12 @@
         <v>23436</v>
       </c>
       <c r="K344" s="23">
-        <f t="shared" si="294"/>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B345" t="str">
         <f>B344</f>
@@ -37134,9 +37406,7 @@
       <c r="G345" s="23">
         <v>25200</v>
       </c>
-      <c r="H345" s="23">
-        <v>59</v>
-      </c>
+      <c r="H345" s="23"/>
       <c r="I345" s="23">
         <f t="shared" ref="I345:I352" si="299">F345*$E345</f>
         <v>3617700</v>
@@ -37146,28 +37416,27 @@
         <v>23436</v>
       </c>
       <c r="K345" s="23">
-        <f t="shared" ref="K345:K352" si="301">H345*$E345</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B346" s="23" t="str">
-        <f t="shared" ref="B346:B352" si="302">B345</f>
+        <f t="shared" ref="B346:B352" si="301">B345</f>
         <v>Battery_Storage</v>
       </c>
       <c r="C346" s="23">
-        <f t="shared" ref="C346:C352" si="303">C345+5</f>
+        <f t="shared" ref="C346:C352" si="302">C345+5</f>
         <v>2020</v>
       </c>
       <c r="D346" s="23">
-        <f t="shared" ref="D346:D352" si="304">D345</f>
+        <f t="shared" ref="D346:D352" si="303">D345</f>
         <v>2009</v>
       </c>
       <c r="E346" s="23">
-        <f t="shared" ref="E346:E352" si="305">E345</f>
+        <f t="shared" ref="E346:E352" si="304">E345</f>
         <v>0.93</v>
       </c>
       <c r="F346">
@@ -37176,9 +37445,7 @@
       <c r="G346" s="23">
         <v>25200</v>
       </c>
-      <c r="H346" s="23">
-        <v>59</v>
-      </c>
+      <c r="H346" s="23"/>
       <c r="I346" s="23">
         <f t="shared" si="299"/>
         <v>3524700</v>
@@ -37188,28 +37455,27 @@
         <v>23436</v>
       </c>
       <c r="K346" s="23">
-        <f t="shared" si="301"/>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B347" s="23" t="str">
+        <f t="shared" si="301"/>
+        <v>Battery_Storage</v>
+      </c>
+      <c r="C347" s="23">
         <f t="shared" si="302"/>
-        <v>Battery_Storage</v>
-      </c>
-      <c r="C347" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D347" s="23">
         <f t="shared" si="303"/>
-        <v>2025</v>
-      </c>
-      <c r="D347" s="23">
+        <v>2009</v>
+      </c>
+      <c r="E347" s="23">
         <f t="shared" si="304"/>
-        <v>2009</v>
-      </c>
-      <c r="E347" s="23">
-        <f t="shared" si="305"/>
         <v>0.93</v>
       </c>
       <c r="F347" s="23">
@@ -37218,9 +37484,7 @@
       <c r="G347" s="23">
         <v>25200</v>
       </c>
-      <c r="H347" s="23">
-        <v>59</v>
-      </c>
+      <c r="H347" s="23"/>
       <c r="I347" s="23">
         <f t="shared" si="299"/>
         <v>3431700</v>
@@ -37230,28 +37494,27 @@
         <v>23436</v>
       </c>
       <c r="K347" s="23">
-        <f t="shared" si="301"/>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B348" s="23" t="str">
+        <f t="shared" si="301"/>
+        <v>Battery_Storage</v>
+      </c>
+      <c r="C348" s="23">
         <f t="shared" si="302"/>
-        <v>Battery_Storage</v>
-      </c>
-      <c r="C348" s="23">
+        <v>2030</v>
+      </c>
+      <c r="D348" s="23">
         <f t="shared" si="303"/>
-        <v>2030</v>
-      </c>
-      <c r="D348" s="23">
+        <v>2009</v>
+      </c>
+      <c r="E348" s="23">
         <f t="shared" si="304"/>
-        <v>2009</v>
-      </c>
-      <c r="E348" s="23">
-        <f t="shared" si="305"/>
         <v>0.93</v>
       </c>
       <c r="F348" s="23">
@@ -37260,9 +37523,7 @@
       <c r="G348" s="23">
         <v>25200</v>
       </c>
-      <c r="H348" s="23">
-        <v>59</v>
-      </c>
+      <c r="H348" s="23"/>
       <c r="I348" s="23">
         <f t="shared" si="299"/>
         <v>3338700</v>
@@ -37272,28 +37533,27 @@
         <v>23436</v>
       </c>
       <c r="K348" s="23">
-        <f t="shared" si="301"/>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B349" s="23" t="str">
+        <f t="shared" si="301"/>
+        <v>Battery_Storage</v>
+      </c>
+      <c r="C349" s="23">
         <f t="shared" si="302"/>
-        <v>Battery_Storage</v>
-      </c>
-      <c r="C349" s="23">
+        <v>2035</v>
+      </c>
+      <c r="D349" s="23">
         <f t="shared" si="303"/>
-        <v>2035</v>
-      </c>
-      <c r="D349" s="23">
+        <v>2009</v>
+      </c>
+      <c r="E349" s="23">
         <f t="shared" si="304"/>
-        <v>2009</v>
-      </c>
-      <c r="E349" s="23">
-        <f t="shared" si="305"/>
         <v>0.93</v>
       </c>
       <c r="F349" s="23">
@@ -37302,9 +37562,7 @@
       <c r="G349" s="23">
         <v>25200</v>
       </c>
-      <c r="H349" s="23">
-        <v>59</v>
-      </c>
+      <c r="H349" s="23"/>
       <c r="I349" s="23">
         <f t="shared" si="299"/>
         <v>3245700</v>
@@ -37314,28 +37572,27 @@
         <v>23436</v>
       </c>
       <c r="K349" s="23">
-        <f t="shared" si="301"/>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B350" s="23" t="str">
+        <f t="shared" si="301"/>
+        <v>Battery_Storage</v>
+      </c>
+      <c r="C350" s="23">
         <f t="shared" si="302"/>
-        <v>Battery_Storage</v>
-      </c>
-      <c r="C350" s="23">
+        <v>2040</v>
+      </c>
+      <c r="D350" s="23">
         <f t="shared" si="303"/>
-        <v>2040</v>
-      </c>
-      <c r="D350" s="23">
+        <v>2009</v>
+      </c>
+      <c r="E350" s="23">
         <f t="shared" si="304"/>
-        <v>2009</v>
-      </c>
-      <c r="E350" s="23">
-        <f t="shared" si="305"/>
         <v>0.93</v>
       </c>
       <c r="F350" s="23">
@@ -37344,9 +37601,7 @@
       <c r="G350" s="23">
         <v>25200</v>
       </c>
-      <c r="H350" s="23">
-        <v>59</v>
-      </c>
+      <c r="H350" s="23"/>
       <c r="I350" s="23">
         <f t="shared" si="299"/>
         <v>3152700</v>
@@ -37356,28 +37611,27 @@
         <v>23436</v>
       </c>
       <c r="K350" s="23">
-        <f t="shared" si="301"/>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B351" s="23" t="str">
+        <f t="shared" si="301"/>
+        <v>Battery_Storage</v>
+      </c>
+      <c r="C351" s="23">
         <f t="shared" si="302"/>
-        <v>Battery_Storage</v>
-      </c>
-      <c r="C351" s="23">
+        <v>2045</v>
+      </c>
+      <c r="D351" s="23">
         <f t="shared" si="303"/>
-        <v>2045</v>
-      </c>
-      <c r="D351" s="23">
+        <v>2009</v>
+      </c>
+      <c r="E351" s="23">
         <f t="shared" si="304"/>
-        <v>2009</v>
-      </c>
-      <c r="E351" s="23">
-        <f t="shared" si="305"/>
         <v>0.93</v>
       </c>
       <c r="F351" s="23">
@@ -37386,9 +37640,7 @@
       <c r="G351" s="23">
         <v>25200</v>
       </c>
-      <c r="H351" s="23">
-        <v>59</v>
-      </c>
+      <c r="H351" s="23"/>
       <c r="I351" s="23">
         <f t="shared" si="299"/>
         <v>3059700</v>
@@ -37398,28 +37650,27 @@
         <v>23436</v>
       </c>
       <c r="K351" s="23">
-        <f t="shared" si="301"/>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B352" s="23" t="str">
+        <f t="shared" si="301"/>
+        <v>Battery_Storage</v>
+      </c>
+      <c r="C352" s="23">
         <f t="shared" si="302"/>
-        <v>Battery_Storage</v>
-      </c>
-      <c r="C352" s="23">
+        <v>2050</v>
+      </c>
+      <c r="D352" s="23">
         <f t="shared" si="303"/>
-        <v>2050</v>
-      </c>
-      <c r="D352" s="23">
+        <v>2009</v>
+      </c>
+      <c r="E352" s="23">
         <f t="shared" si="304"/>
-        <v>2009</v>
-      </c>
-      <c r="E352" s="23">
-        <f t="shared" si="305"/>
         <v>0.93</v>
       </c>
       <c r="F352" s="23">
@@ -37428,9 +37679,7 @@
       <c r="G352" s="23">
         <v>25200</v>
       </c>
-      <c r="H352" s="23">
-        <v>59</v>
-      </c>
+      <c r="H352" s="23"/>
       <c r="I352" s="23">
         <f t="shared" si="299"/>
         <v>2966700</v>
@@ -37440,8 +37689,7 @@
         <v>23436</v>
       </c>
       <c r="K352" s="23">
-        <f t="shared" si="301"/>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="2:5">
@@ -37452,8 +37700,9 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -37461,14 +37710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F362"/>
   <sheetViews>
     <sheetView topLeftCell="A296" workbookViewId="0">
       <selection activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="23"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
@@ -37503,7 +37752,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="23">
         <f>generator_costs!A7</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="23" t="str">
         <f>generator_costs!B7</f>
@@ -37529,7 +37778,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="23">
         <f>generator_costs!A8</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="23" t="str">
         <f>generator_costs!B8</f>
@@ -37555,7 +37804,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="23">
         <f>generator_costs!A9</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="23" t="str">
         <f>generator_costs!B9</f>
@@ -37581,7 +37830,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="23">
         <f>generator_costs!A10</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>generator_costs!B10</f>
@@ -37607,7 +37856,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="23">
         <f>generator_costs!A11</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="23" t="str">
         <f>generator_costs!B11</f>
@@ -37633,7 +37882,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="23">
         <f>generator_costs!A12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="23" t="str">
         <f>generator_costs!B12</f>
@@ -37659,7 +37908,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="23">
         <f>generator_costs!A13</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="23" t="str">
         <f>generator_costs!B13</f>
@@ -37685,7 +37934,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="23">
         <f>generator_costs!A14</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="23" t="str">
         <f>generator_costs!B14</f>
@@ -37711,7 +37960,7 @@
     <row r="10" spans="1:6">
       <c r="A10" s="23">
         <f>generator_costs!A15</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" s="23" t="str">
         <f>generator_costs!B15</f>
@@ -37737,7 +37986,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="23">
         <f>generator_costs!A16</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" s="23" t="str">
         <f>generator_costs!B16</f>
@@ -37763,7 +38012,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="23">
         <f>generator_costs!A17</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" s="23" t="str">
         <f>generator_costs!B17</f>
@@ -37789,7 +38038,7 @@
     <row r="13" spans="1:6">
       <c r="A13" s="23">
         <f>generator_costs!A18</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" s="23" t="str">
         <f>generator_costs!B18</f>
@@ -37815,7 +38064,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="23">
         <f>generator_costs!A19</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" s="23" t="str">
         <f>generator_costs!B19</f>
@@ -37841,7 +38090,7 @@
     <row r="15" spans="1:6">
       <c r="A15" s="23">
         <f>generator_costs!A20</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" s="23" t="str">
         <f>generator_costs!B20</f>
@@ -37867,7 +38116,7 @@
     <row r="16" spans="1:6">
       <c r="A16" s="23">
         <f>generator_costs!A21</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" s="23" t="str">
         <f>generator_costs!B21</f>
@@ -37893,7 +38142,7 @@
     <row r="17" spans="1:6">
       <c r="A17" s="23">
         <f>generator_costs!A22</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" s="23" t="str">
         <f>generator_costs!B22</f>
@@ -37919,7 +38168,7 @@
     <row r="18" spans="1:6">
       <c r="A18" s="23">
         <f>generator_costs!A23</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" s="23" t="str">
         <f>generator_costs!B23</f>
@@ -37945,7 +38194,7 @@
     <row r="19" spans="1:6">
       <c r="A19" s="23">
         <f>generator_costs!A24</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" s="23" t="str">
         <f>generator_costs!B24</f>
@@ -37971,7 +38220,7 @@
     <row r="20" spans="1:6">
       <c r="A20" s="23">
         <f>generator_costs!A25</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" s="23" t="str">
         <f>generator_costs!B25</f>
@@ -37997,7 +38246,7 @@
     <row r="21" spans="1:6">
       <c r="A21" s="23">
         <f>generator_costs!A26</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" s="23" t="str">
         <f>generator_costs!B26</f>
@@ -38023,7 +38272,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="23">
         <f>generator_costs!A27</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" s="23" t="str">
         <f>generator_costs!B27</f>
@@ -38049,7 +38298,7 @@
     <row r="23" spans="1:6">
       <c r="A23" s="23">
         <f>generator_costs!A28</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" s="23" t="str">
         <f>generator_costs!B28</f>
@@ -38075,7 +38324,7 @@
     <row r="24" spans="1:6">
       <c r="A24" s="23">
         <f>generator_costs!A29</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" s="23" t="str">
         <f>generator_costs!B29</f>
@@ -38101,7 +38350,7 @@
     <row r="25" spans="1:6">
       <c r="A25" s="23">
         <f>generator_costs!A30</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" s="23" t="str">
         <f>generator_costs!B30</f>
@@ -38127,7 +38376,7 @@
     <row r="26" spans="1:6">
       <c r="A26" s="23">
         <f>generator_costs!A31</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" s="23" t="str">
         <f>generator_costs!B31</f>
@@ -38153,7 +38402,7 @@
     <row r="27" spans="1:6">
       <c r="A27" s="23">
         <f>generator_costs!A32</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" s="23" t="str">
         <f>generator_costs!B32</f>
@@ -38179,7 +38428,7 @@
     <row r="28" spans="1:6">
       <c r="A28" s="23">
         <f>generator_costs!A33</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" s="23" t="str">
         <f>generator_costs!B33</f>
@@ -38205,7 +38454,7 @@
     <row r="29" spans="1:6">
       <c r="A29" s="23">
         <f>generator_costs!A34</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" s="23" t="str">
         <f>generator_costs!B34</f>
@@ -38231,7 +38480,7 @@
     <row r="30" spans="1:6">
       <c r="A30" s="23">
         <f>generator_costs!A35</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" s="23" t="str">
         <f>generator_costs!B35</f>
@@ -38257,7 +38506,7 @@
     <row r="31" spans="1:6">
       <c r="A31" s="23">
         <f>generator_costs!A36</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" s="23" t="str">
         <f>generator_costs!B36</f>
@@ -38283,7 +38532,7 @@
     <row r="32" spans="1:6">
       <c r="A32" s="23">
         <f>generator_costs!A37</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" s="23" t="str">
         <f>generator_costs!B37</f>
@@ -38309,7 +38558,7 @@
     <row r="33" spans="1:6">
       <c r="A33" s="23">
         <f>generator_costs!A38</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" s="23" t="str">
         <f>generator_costs!B38</f>
@@ -38335,7 +38584,7 @@
     <row r="34" spans="1:6">
       <c r="A34" s="23">
         <f>generator_costs!A39</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" s="23" t="str">
         <f>generator_costs!B39</f>
@@ -38361,7 +38610,7 @@
     <row r="35" spans="1:6">
       <c r="A35" s="23">
         <f>generator_costs!A40</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B35" s="23" t="str">
         <f>generator_costs!B40</f>
@@ -38387,7 +38636,7 @@
     <row r="36" spans="1:6">
       <c r="A36" s="23">
         <f>generator_costs!A41</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" s="23" t="str">
         <f>generator_costs!B41</f>
@@ -38413,7 +38662,7 @@
     <row r="37" spans="1:6">
       <c r="A37" s="23">
         <f>generator_costs!A42</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" s="23" t="str">
         <f>generator_costs!B42</f>
@@ -38439,7 +38688,7 @@
     <row r="38" spans="1:6">
       <c r="A38" s="23">
         <f>generator_costs!A43</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" s="23" t="str">
         <f>generator_costs!B43</f>
@@ -38465,7 +38714,7 @@
     <row r="39" spans="1:6">
       <c r="A39" s="23">
         <f>generator_costs!A44</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" s="23" t="str">
         <f>generator_costs!B44</f>
@@ -38491,7 +38740,7 @@
     <row r="40" spans="1:6">
       <c r="A40" s="23">
         <f>generator_costs!A45</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" s="23" t="str">
         <f>generator_costs!B45</f>
@@ -38517,7 +38766,7 @@
     <row r="41" spans="1:6">
       <c r="A41" s="23">
         <f>generator_costs!A46</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" s="23" t="str">
         <f>generator_costs!B46</f>
@@ -38543,7 +38792,7 @@
     <row r="42" spans="1:6">
       <c r="A42" s="23">
         <f>generator_costs!A47</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B42" s="23" t="str">
         <f>generator_costs!B47</f>
@@ -38569,7 +38818,7 @@
     <row r="43" spans="1:6">
       <c r="A43" s="23">
         <f>generator_costs!A48</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B43" s="23" t="str">
         <f>generator_costs!B48</f>
@@ -38595,7 +38844,7 @@
     <row r="44" spans="1:6">
       <c r="A44" s="23">
         <f>generator_costs!A49</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44" s="23" t="str">
         <f>generator_costs!B49</f>
@@ -38621,7 +38870,7 @@
     <row r="45" spans="1:6">
       <c r="A45" s="23">
         <f>generator_costs!A50</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" s="23" t="str">
         <f>generator_costs!B50</f>
@@ -38647,7 +38896,7 @@
     <row r="46" spans="1:6">
       <c r="A46" s="23">
         <f>generator_costs!A51</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B46" s="23" t="str">
         <f>generator_costs!B51</f>
@@ -38673,7 +38922,7 @@
     <row r="47" spans="1:6">
       <c r="A47" s="23">
         <f>generator_costs!A52</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B47" s="23" t="str">
         <f>generator_costs!B52</f>
@@ -38699,7 +38948,7 @@
     <row r="48" spans="1:6">
       <c r="A48" s="23">
         <f>generator_costs!A53</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B48" s="23" t="str">
         <f>generator_costs!B53</f>
@@ -38725,7 +38974,7 @@
     <row r="49" spans="1:6">
       <c r="A49" s="23">
         <f>generator_costs!A54</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B49" s="23" t="str">
         <f>generator_costs!B54</f>
@@ -38751,7 +39000,7 @@
     <row r="50" spans="1:6">
       <c r="A50" s="23">
         <f>generator_costs!A55</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B50" s="23" t="str">
         <f>generator_costs!B55</f>
@@ -38777,7 +39026,7 @@
     <row r="51" spans="1:6">
       <c r="A51" s="23">
         <f>generator_costs!A56</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B51" s="23" t="str">
         <f>generator_costs!B56</f>
@@ -38803,7 +39052,7 @@
     <row r="52" spans="1:6">
       <c r="A52" s="23">
         <f>generator_costs!A57</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B52" s="23" t="str">
         <f>generator_costs!B57</f>
@@ -38829,7 +39078,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="23">
         <f>generator_costs!A58</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53" s="23" t="str">
         <f>generator_costs!B58</f>
@@ -38855,7 +39104,7 @@
     <row r="54" spans="1:6">
       <c r="A54" s="23">
         <f>generator_costs!A59</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B54" s="23" t="str">
         <f>generator_costs!B59</f>
@@ -38881,7 +39130,7 @@
     <row r="55" spans="1:6">
       <c r="A55" s="23">
         <f>generator_costs!A60</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B55" s="23" t="str">
         <f>generator_costs!B60</f>
@@ -38907,7 +39156,7 @@
     <row r="56" spans="1:6">
       <c r="A56" s="23">
         <f>generator_costs!A61</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B56" s="23" t="str">
         <f>generator_costs!B61</f>
@@ -38933,7 +39182,7 @@
     <row r="57" spans="1:6">
       <c r="A57" s="23">
         <f>generator_costs!A62</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B57" s="23" t="str">
         <f>generator_costs!B62</f>
@@ -38959,7 +39208,7 @@
     <row r="58" spans="1:6">
       <c r="A58" s="23">
         <f>generator_costs!A63</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B58" s="23" t="str">
         <f>generator_costs!B63</f>
@@ -38985,7 +39234,7 @@
     <row r="59" spans="1:6">
       <c r="A59" s="23">
         <f>generator_costs!A64</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" s="23" t="str">
         <f>generator_costs!B64</f>
@@ -39011,7 +39260,7 @@
     <row r="60" spans="1:6">
       <c r="A60" s="23">
         <f>generator_costs!A65</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B60" s="23" t="str">
         <f>generator_costs!B65</f>
@@ -39037,7 +39286,7 @@
     <row r="61" spans="1:6">
       <c r="A61" s="23">
         <f>generator_costs!A66</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B61" s="23" t="str">
         <f>generator_costs!B66</f>
@@ -39063,7 +39312,7 @@
     <row r="62" spans="1:6">
       <c r="A62" s="23">
         <f>generator_costs!A67</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B62" s="23" t="str">
         <f>generator_costs!B67</f>
@@ -39089,7 +39338,7 @@
     <row r="63" spans="1:6">
       <c r="A63" s="23">
         <f>generator_costs!A68</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B63" s="23" t="str">
         <f>generator_costs!B68</f>
@@ -39115,7 +39364,7 @@
     <row r="64" spans="1:6">
       <c r="A64" s="23">
         <f>generator_costs!A69</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B64" s="23" t="str">
         <f>generator_costs!B69</f>
@@ -39141,7 +39390,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="23">
         <f>generator_costs!A70</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B65" s="23" t="str">
         <f>generator_costs!B70</f>
@@ -39167,7 +39416,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="23">
         <f>generator_costs!A71</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B66" s="23" t="str">
         <f>generator_costs!B71</f>
@@ -39193,7 +39442,7 @@
     <row r="67" spans="1:6">
       <c r="A67" s="23">
         <f>generator_costs!A72</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B67" s="23" t="str">
         <f>generator_costs!B72</f>
@@ -39219,7 +39468,7 @@
     <row r="68" spans="1:6">
       <c r="A68" s="23">
         <f>generator_costs!A73</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B68" s="23" t="str">
         <f>generator_costs!B73</f>
@@ -39245,7 +39494,7 @@
     <row r="69" spans="1:6">
       <c r="A69" s="23">
         <f>generator_costs!A74</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B69" s="23" t="str">
         <f>generator_costs!B74</f>
@@ -39271,7 +39520,7 @@
     <row r="70" spans="1:6">
       <c r="A70" s="23">
         <f>generator_costs!A75</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B70" s="23" t="str">
         <f>generator_costs!B75</f>
@@ -39297,7 +39546,7 @@
     <row r="71" spans="1:6">
       <c r="A71" s="23">
         <f>generator_costs!A76</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B71" s="23" t="str">
         <f>generator_costs!B76</f>
@@ -39323,7 +39572,7 @@
     <row r="72" spans="1:6">
       <c r="A72" s="23">
         <f>generator_costs!A77</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B72" s="23" t="str">
         <f>generator_costs!B77</f>
@@ -39349,7 +39598,7 @@
     <row r="73" spans="1:6">
       <c r="A73" s="23">
         <f>generator_costs!A78</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B73" s="23" t="str">
         <f>generator_costs!B78</f>
@@ -39375,7 +39624,7 @@
     <row r="74" spans="1:6">
       <c r="A74" s="23">
         <f>generator_costs!A79</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B74" s="23" t="str">
         <f>generator_costs!B79</f>
@@ -39401,7 +39650,7 @@
     <row r="75" spans="1:6">
       <c r="A75" s="23">
         <f>generator_costs!A80</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B75" s="23" t="str">
         <f>generator_costs!B80</f>
@@ -39427,7 +39676,7 @@
     <row r="76" spans="1:6">
       <c r="A76" s="23">
         <f>generator_costs!A81</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B76" s="23" t="str">
         <f>generator_costs!B81</f>
@@ -39453,7 +39702,7 @@
     <row r="77" spans="1:6">
       <c r="A77" s="23">
         <f>generator_costs!A82</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B77" s="23" t="str">
         <f>generator_costs!B82</f>
@@ -39479,7 +39728,7 @@
     <row r="78" spans="1:6">
       <c r="A78" s="23">
         <f>generator_costs!A83</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B78" s="23" t="str">
         <f>generator_costs!B83</f>
@@ -39505,7 +39754,7 @@
     <row r="79" spans="1:6">
       <c r="A79" s="23">
         <f>generator_costs!A84</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B79" s="23" t="str">
         <f>generator_costs!B84</f>
@@ -39531,7 +39780,7 @@
     <row r="80" spans="1:6">
       <c r="A80" s="23">
         <f>generator_costs!A85</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B80" s="23" t="str">
         <f>generator_costs!B85</f>
@@ -39557,7 +39806,7 @@
     <row r="81" spans="1:6">
       <c r="A81" s="23">
         <f>generator_costs!A86</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B81" s="23" t="str">
         <f>generator_costs!B86</f>
@@ -39583,7 +39832,7 @@
     <row r="82" spans="1:6">
       <c r="A82" s="23">
         <f>generator_costs!A87</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B82" s="23" t="str">
         <f>generator_costs!B87</f>
@@ -39609,7 +39858,7 @@
     <row r="83" spans="1:6">
       <c r="A83" s="23">
         <f>generator_costs!A88</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B83" s="23" t="str">
         <f>generator_costs!B88</f>
@@ -39635,7 +39884,7 @@
     <row r="84" spans="1:6">
       <c r="A84" s="23">
         <f>generator_costs!A89</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B84" s="23" t="str">
         <f>generator_costs!B89</f>
@@ -39661,7 +39910,7 @@
     <row r="85" spans="1:6">
       <c r="A85" s="23">
         <f>generator_costs!A90</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B85" s="23" t="str">
         <f>generator_costs!B90</f>
@@ -39687,7 +39936,7 @@
     <row r="86" spans="1:6">
       <c r="A86" s="23">
         <f>generator_costs!A91</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B86" s="23" t="str">
         <f>generator_costs!B91</f>
@@ -39713,7 +39962,7 @@
     <row r="87" spans="1:6">
       <c r="A87" s="23">
         <f>generator_costs!A92</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B87" s="23" t="str">
         <f>generator_costs!B92</f>
@@ -39739,7 +39988,7 @@
     <row r="88" spans="1:6">
       <c r="A88" s="23">
         <f>generator_costs!A93</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B88" s="23" t="str">
         <f>generator_costs!B93</f>
@@ -39765,7 +40014,7 @@
     <row r="89" spans="1:6">
       <c r="A89" s="23">
         <f>generator_costs!A94</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B89" s="23" t="str">
         <f>generator_costs!B94</f>
@@ -39791,7 +40040,7 @@
     <row r="90" spans="1:6">
       <c r="A90" s="23">
         <f>generator_costs!A95</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B90" s="23" t="str">
         <f>generator_costs!B95</f>
@@ -39817,7 +40066,7 @@
     <row r="91" spans="1:6">
       <c r="A91" s="23">
         <f>generator_costs!A96</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B91" s="23" t="str">
         <f>generator_costs!B96</f>
@@ -39843,7 +40092,7 @@
     <row r="92" spans="1:6">
       <c r="A92" s="23">
         <f>generator_costs!A97</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B92" s="23" t="str">
         <f>generator_costs!B97</f>
@@ -39869,7 +40118,7 @@
     <row r="93" spans="1:6">
       <c r="A93" s="23">
         <f>generator_costs!A98</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B93" s="23" t="str">
         <f>generator_costs!B98</f>
@@ -39895,7 +40144,7 @@
     <row r="94" spans="1:6">
       <c r="A94" s="23">
         <f>generator_costs!A99</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B94" s="23" t="str">
         <f>generator_costs!B99</f>
@@ -39921,7 +40170,7 @@
     <row r="95" spans="1:6">
       <c r="A95" s="23">
         <f>generator_costs!A100</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B95" s="23" t="str">
         <f>generator_costs!B100</f>
@@ -39947,7 +40196,7 @@
     <row r="96" spans="1:6">
       <c r="A96" s="23">
         <f>generator_costs!A101</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B96" s="23" t="str">
         <f>generator_costs!B101</f>
@@ -39973,7 +40222,7 @@
     <row r="97" spans="1:6">
       <c r="A97" s="23">
         <f>generator_costs!A102</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B97" s="23" t="str">
         <f>generator_costs!B102</f>
@@ -39999,7 +40248,7 @@
     <row r="98" spans="1:6">
       <c r="A98" s="23">
         <f>generator_costs!A103</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B98" s="23" t="str">
         <f>generator_costs!B103</f>
@@ -40025,7 +40274,7 @@
     <row r="99" spans="1:6">
       <c r="A99" s="23">
         <f>generator_costs!A104</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B99" s="23" t="str">
         <f>generator_costs!B104</f>
@@ -40051,7 +40300,7 @@
     <row r="100" spans="1:6">
       <c r="A100" s="23">
         <f>generator_costs!A105</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B100" s="23" t="str">
         <f>generator_costs!B105</f>
@@ -40077,7 +40326,7 @@
     <row r="101" spans="1:6">
       <c r="A101" s="23">
         <f>generator_costs!A106</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B101" s="23" t="str">
         <f>generator_costs!B106</f>
@@ -40103,7 +40352,7 @@
     <row r="102" spans="1:6">
       <c r="A102" s="23">
         <f>generator_costs!A107</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B102" s="23" t="str">
         <f>generator_costs!B107</f>
@@ -40129,7 +40378,7 @@
     <row r="103" spans="1:6">
       <c r="A103" s="23">
         <f>generator_costs!A108</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B103" s="23" t="str">
         <f>generator_costs!B108</f>
@@ -40155,7 +40404,7 @@
     <row r="104" spans="1:6">
       <c r="A104" s="23">
         <f>generator_costs!A109</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B104" s="23" t="str">
         <f>generator_costs!B109</f>
@@ -40181,7 +40430,7 @@
     <row r="105" spans="1:6">
       <c r="A105" s="23">
         <f>generator_costs!A110</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B105" s="23" t="str">
         <f>generator_costs!B110</f>
@@ -40207,7 +40456,7 @@
     <row r="106" spans="1:6">
       <c r="A106" s="23">
         <f>generator_costs!A111</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B106" s="23" t="str">
         <f>generator_costs!B111</f>
@@ -40233,7 +40482,7 @@
     <row r="107" spans="1:6">
       <c r="A107" s="23">
         <f>generator_costs!A112</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B107" s="23" t="str">
         <f>generator_costs!B112</f>
@@ -40259,7 +40508,7 @@
     <row r="108" spans="1:6">
       <c r="A108" s="23">
         <f>generator_costs!A113</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B108" s="23" t="str">
         <f>generator_costs!B113</f>
@@ -40285,7 +40534,7 @@
     <row r="109" spans="1:6">
       <c r="A109" s="23">
         <f>generator_costs!A114</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B109" s="23" t="str">
         <f>generator_costs!B114</f>
@@ -40311,7 +40560,7 @@
     <row r="110" spans="1:6">
       <c r="A110" s="23">
         <f>generator_costs!A115</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B110" s="23" t="str">
         <f>generator_costs!B115</f>
@@ -40337,7 +40586,7 @@
     <row r="111" spans="1:6">
       <c r="A111" s="23">
         <f>generator_costs!A116</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B111" s="23" t="str">
         <f>generator_costs!B116</f>
@@ -40363,7 +40612,7 @@
     <row r="112" spans="1:6">
       <c r="A112" s="23">
         <f>generator_costs!A117</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B112" s="23" t="str">
         <f>generator_costs!B117</f>
@@ -40389,7 +40638,7 @@
     <row r="113" spans="1:6">
       <c r="A113" s="23">
         <f>generator_costs!A118</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B113" s="23" t="str">
         <f>generator_costs!B118</f>
@@ -40415,7 +40664,7 @@
     <row r="114" spans="1:6">
       <c r="A114" s="23">
         <f>generator_costs!A119</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B114" s="23" t="str">
         <f>generator_costs!B119</f>
@@ -40441,7 +40690,7 @@
     <row r="115" spans="1:6">
       <c r="A115" s="23">
         <f>generator_costs!A120</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B115" s="23" t="str">
         <f>generator_costs!B120</f>
@@ -40467,7 +40716,7 @@
     <row r="116" spans="1:6">
       <c r="A116" s="23">
         <f>generator_costs!A121</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B116" s="23" t="str">
         <f>generator_costs!B121</f>
@@ -40493,7 +40742,7 @@
     <row r="117" spans="1:6">
       <c r="A117" s="23">
         <f>generator_costs!A122</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B117" s="23" t="str">
         <f>generator_costs!B122</f>
@@ -40519,7 +40768,7 @@
     <row r="118" spans="1:6">
       <c r="A118" s="23">
         <f>generator_costs!A123</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B118" s="23" t="str">
         <f>generator_costs!B123</f>
@@ -40545,7 +40794,7 @@
     <row r="119" spans="1:6">
       <c r="A119" s="23">
         <f>generator_costs!A124</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B119" s="23" t="str">
         <f>generator_costs!B124</f>
@@ -40571,7 +40820,7 @@
     <row r="120" spans="1:6">
       <c r="A120" s="23">
         <f>generator_costs!A125</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B120" s="23" t="str">
         <f>generator_costs!B125</f>
@@ -40597,7 +40846,7 @@
     <row r="121" spans="1:6">
       <c r="A121" s="23">
         <f>generator_costs!A126</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B121" s="23" t="str">
         <f>generator_costs!B126</f>
@@ -40623,7 +40872,7 @@
     <row r="122" spans="1:6">
       <c r="A122" s="23">
         <f>generator_costs!A127</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B122" s="23" t="str">
         <f>generator_costs!B127</f>
@@ -40649,7 +40898,7 @@
     <row r="123" spans="1:6">
       <c r="A123" s="23">
         <f>generator_costs!A128</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B123" s="23" t="str">
         <f>generator_costs!B128</f>
@@ -40675,7 +40924,7 @@
     <row r="124" spans="1:6">
       <c r="A124" s="23">
         <f>generator_costs!A129</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B124" s="23" t="str">
         <f>generator_costs!B129</f>
@@ -40701,7 +40950,7 @@
     <row r="125" spans="1:6">
       <c r="A125" s="23">
         <f>generator_costs!A130</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B125" s="23" t="str">
         <f>generator_costs!B130</f>
@@ -40727,7 +40976,7 @@
     <row r="126" spans="1:6">
       <c r="A126" s="23">
         <f>generator_costs!A131</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B126" s="23" t="str">
         <f>generator_costs!B131</f>
@@ -40753,7 +41002,7 @@
     <row r="127" spans="1:6">
       <c r="A127" s="23">
         <f>generator_costs!A132</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B127" s="23" t="str">
         <f>generator_costs!B132</f>
@@ -40779,7 +41028,7 @@
     <row r="128" spans="1:6">
       <c r="A128" s="23">
         <f>generator_costs!A133</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B128" s="23" t="str">
         <f>generator_costs!B133</f>
@@ -40805,7 +41054,7 @@
     <row r="129" spans="1:6">
       <c r="A129" s="23">
         <f>generator_costs!A134</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B129" s="23" t="str">
         <f>generator_costs!B134</f>
@@ -40831,7 +41080,7 @@
     <row r="130" spans="1:6">
       <c r="A130" s="23">
         <f>generator_costs!A135</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B130" s="23" t="str">
         <f>generator_costs!B135</f>
@@ -40857,7 +41106,7 @@
     <row r="131" spans="1:6">
       <c r="A131" s="23">
         <f>generator_costs!A136</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B131" s="23" t="str">
         <f>generator_costs!B136</f>
@@ -40883,7 +41132,7 @@
     <row r="132" spans="1:6">
       <c r="A132" s="23">
         <f>generator_costs!A137</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B132" s="23" t="str">
         <f>generator_costs!B137</f>
@@ -40909,7 +41158,7 @@
     <row r="133" spans="1:6">
       <c r="A133" s="23">
         <f>generator_costs!A138</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B133" s="23" t="str">
         <f>generator_costs!B138</f>
@@ -40935,7 +41184,7 @@
     <row r="134" spans="1:6">
       <c r="A134" s="23">
         <f>generator_costs!A139</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B134" s="23" t="str">
         <f>generator_costs!B139</f>
@@ -40961,7 +41210,7 @@
     <row r="135" spans="1:6">
       <c r="A135" s="23">
         <f>generator_costs!A140</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B135" s="23" t="str">
         <f>generator_costs!B140</f>
@@ -40987,7 +41236,7 @@
     <row r="136" spans="1:6">
       <c r="A136" s="23">
         <f>generator_costs!A141</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B136" s="23" t="str">
         <f>generator_costs!B141</f>
@@ -41013,7 +41262,7 @@
     <row r="137" spans="1:6">
       <c r="A137" s="23">
         <f>generator_costs!A142</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B137" s="23" t="str">
         <f>generator_costs!B142</f>
@@ -41039,7 +41288,7 @@
     <row r="138" spans="1:6">
       <c r="A138" s="23">
         <f>generator_costs!A143</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B138" s="23" t="str">
         <f>generator_costs!B143</f>
@@ -41065,7 +41314,7 @@
     <row r="139" spans="1:6">
       <c r="A139" s="23">
         <f>generator_costs!A144</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B139" s="23" t="str">
         <f>generator_costs!B144</f>
@@ -41091,7 +41340,7 @@
     <row r="140" spans="1:6">
       <c r="A140" s="23">
         <f>generator_costs!A145</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B140" s="23" t="str">
         <f>generator_costs!B145</f>
@@ -41117,7 +41366,7 @@
     <row r="141" spans="1:6">
       <c r="A141" s="23">
         <f>generator_costs!A146</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B141" s="23" t="str">
         <f>generator_costs!B146</f>
@@ -41143,7 +41392,7 @@
     <row r="142" spans="1:6">
       <c r="A142" s="23">
         <f>generator_costs!A147</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B142" s="23" t="str">
         <f>generator_costs!B147</f>
@@ -41169,7 +41418,7 @@
     <row r="143" spans="1:6">
       <c r="A143" s="23">
         <f>generator_costs!A148</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B143" s="23" t="str">
         <f>generator_costs!B148</f>
@@ -41195,7 +41444,7 @@
     <row r="144" spans="1:6">
       <c r="A144" s="23">
         <f>generator_costs!A149</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B144" s="23" t="str">
         <f>generator_costs!B149</f>
@@ -41221,7 +41470,7 @@
     <row r="145" spans="1:6">
       <c r="A145" s="23">
         <f>generator_costs!A150</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B145" s="23" t="str">
         <f>generator_costs!B150</f>
@@ -41247,7 +41496,7 @@
     <row r="146" spans="1:6">
       <c r="A146" s="23">
         <f>generator_costs!A151</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B146" s="23" t="str">
         <f>generator_costs!B151</f>
@@ -41273,7 +41522,7 @@
     <row r="147" spans="1:6">
       <c r="A147" s="23">
         <f>generator_costs!A152</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B147" s="23" t="str">
         <f>generator_costs!B152</f>
@@ -41299,7 +41548,7 @@
     <row r="148" spans="1:6">
       <c r="A148" s="23">
         <f>generator_costs!A153</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B148" s="23" t="str">
         <f>generator_costs!B153</f>
@@ -41325,7 +41574,7 @@
     <row r="149" spans="1:6">
       <c r="A149" s="23">
         <f>generator_costs!A154</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B149" s="23" t="str">
         <f>generator_costs!B154</f>
@@ -41351,7 +41600,7 @@
     <row r="150" spans="1:6">
       <c r="A150" s="23">
         <f>generator_costs!A155</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B150" s="23" t="str">
         <f>generator_costs!B155</f>
@@ -41377,7 +41626,7 @@
     <row r="151" spans="1:6">
       <c r="A151" s="23">
         <f>generator_costs!A156</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B151" s="23" t="str">
         <f>generator_costs!B156</f>
@@ -41403,7 +41652,7 @@
     <row r="152" spans="1:6">
       <c r="A152" s="23">
         <f>generator_costs!A157</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B152" s="23" t="str">
         <f>generator_costs!B157</f>
@@ -41429,7 +41678,7 @@
     <row r="153" spans="1:6">
       <c r="A153" s="23">
         <f>generator_costs!A158</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B153" s="23" t="str">
         <f>generator_costs!B158</f>
@@ -41455,7 +41704,7 @@
     <row r="154" spans="1:6">
       <c r="A154" s="23">
         <f>generator_costs!A159</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B154" s="23" t="str">
         <f>generator_costs!B159</f>
@@ -41481,7 +41730,7 @@
     <row r="155" spans="1:6">
       <c r="A155" s="23">
         <f>generator_costs!A160</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B155" s="23" t="str">
         <f>generator_costs!B160</f>
@@ -41507,7 +41756,7 @@
     <row r="156" spans="1:6">
       <c r="A156" s="23">
         <f>generator_costs!A161</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B156" s="23" t="str">
         <f>generator_costs!B161</f>
@@ -41533,7 +41782,7 @@
     <row r="157" spans="1:6">
       <c r="A157" s="23">
         <f>generator_costs!A162</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B157" s="23" t="str">
         <f>generator_costs!B162</f>
@@ -41559,7 +41808,7 @@
     <row r="158" spans="1:6">
       <c r="A158" s="23">
         <f>generator_costs!A163</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B158" s="23" t="str">
         <f>generator_costs!B163</f>
@@ -41585,7 +41834,7 @@
     <row r="159" spans="1:6">
       <c r="A159" s="23">
         <f>generator_costs!A164</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B159" s="23" t="str">
         <f>generator_costs!B164</f>
@@ -41611,7 +41860,7 @@
     <row r="160" spans="1:6">
       <c r="A160" s="23">
         <f>generator_costs!A165</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B160" s="23" t="str">
         <f>generator_costs!B165</f>
@@ -41637,7 +41886,7 @@
     <row r="161" spans="1:6">
       <c r="A161" s="23">
         <f>generator_costs!A166</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B161" s="23" t="str">
         <f>generator_costs!B166</f>
@@ -41663,7 +41912,7 @@
     <row r="162" spans="1:6">
       <c r="A162" s="23">
         <f>generator_costs!A167</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B162" s="23" t="str">
         <f>generator_costs!B167</f>
@@ -41689,7 +41938,7 @@
     <row r="163" spans="1:6">
       <c r="A163" s="23">
         <f>generator_costs!A168</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B163" s="23" t="str">
         <f>generator_costs!B168</f>
@@ -41715,7 +41964,7 @@
     <row r="164" spans="1:6">
       <c r="A164" s="23">
         <f>generator_costs!A169</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B164" s="23" t="str">
         <f>generator_costs!B169</f>
@@ -41741,7 +41990,7 @@
     <row r="165" spans="1:6">
       <c r="A165" s="23">
         <f>generator_costs!A170</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B165" s="23" t="str">
         <f>generator_costs!B170</f>
@@ -41767,7 +42016,7 @@
     <row r="166" spans="1:6">
       <c r="A166" s="23">
         <f>generator_costs!A171</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B166" s="23" t="str">
         <f>generator_costs!B171</f>
@@ -41793,7 +42042,7 @@
     <row r="167" spans="1:6">
       <c r="A167" s="23">
         <f>generator_costs!A172</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B167" s="23" t="str">
         <f>generator_costs!B172</f>
@@ -41819,7 +42068,7 @@
     <row r="168" spans="1:6">
       <c r="A168" s="23">
         <f>generator_costs!A173</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B168" s="23" t="str">
         <f>generator_costs!B173</f>
@@ -41845,7 +42094,7 @@
     <row r="169" spans="1:6">
       <c r="A169" s="23">
         <f>generator_costs!A174</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B169" s="23" t="str">
         <f>generator_costs!B174</f>
@@ -41871,7 +42120,7 @@
     <row r="170" spans="1:6">
       <c r="A170" s="23">
         <f>generator_costs!A175</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B170" s="23" t="str">
         <f>generator_costs!B175</f>
@@ -41897,7 +42146,7 @@
     <row r="171" spans="1:6">
       <c r="A171" s="23">
         <f>generator_costs!A176</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B171" s="23" t="str">
         <f>generator_costs!B176</f>
@@ -41923,7 +42172,7 @@
     <row r="172" spans="1:6">
       <c r="A172" s="23">
         <f>generator_costs!A177</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B172" s="23" t="str">
         <f>generator_costs!B177</f>
@@ -41949,7 +42198,7 @@
     <row r="173" spans="1:6">
       <c r="A173" s="23">
         <f>generator_costs!A178</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B173" s="23" t="str">
         <f>generator_costs!B178</f>
@@ -41975,7 +42224,7 @@
     <row r="174" spans="1:6">
       <c r="A174" s="23">
         <f>generator_costs!A179</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B174" s="23" t="str">
         <f>generator_costs!B179</f>
@@ -42001,7 +42250,7 @@
     <row r="175" spans="1:6">
       <c r="A175" s="23">
         <f>generator_costs!A180</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B175" s="23" t="str">
         <f>generator_costs!B180</f>
@@ -42027,7 +42276,7 @@
     <row r="176" spans="1:6">
       <c r="A176" s="23">
         <f>generator_costs!A181</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B176" s="23" t="str">
         <f>generator_costs!B181</f>
@@ -42053,7 +42302,7 @@
     <row r="177" spans="1:6">
       <c r="A177" s="23">
         <f>generator_costs!A182</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B177" s="23" t="str">
         <f>generator_costs!B182</f>
@@ -42079,7 +42328,7 @@
     <row r="178" spans="1:6">
       <c r="A178" s="23">
         <f>generator_costs!A183</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B178" s="23" t="str">
         <f>generator_costs!B183</f>
@@ -42105,7 +42354,7 @@
     <row r="179" spans="1:6">
       <c r="A179" s="23">
         <f>generator_costs!A184</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B179" s="23" t="str">
         <f>generator_costs!B184</f>
@@ -42131,7 +42380,7 @@
     <row r="180" spans="1:6">
       <c r="A180" s="23">
         <f>generator_costs!A185</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B180" s="23" t="str">
         <f>generator_costs!B185</f>
@@ -42157,7 +42406,7 @@
     <row r="181" spans="1:6">
       <c r="A181" s="23">
         <f>generator_costs!A186</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B181" s="23" t="str">
         <f>generator_costs!B186</f>
@@ -42183,7 +42432,7 @@
     <row r="182" spans="1:6">
       <c r="A182" s="23">
         <f>generator_costs!A187</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B182" s="23" t="str">
         <f>generator_costs!B187</f>
@@ -42209,7 +42458,7 @@
     <row r="183" spans="1:6">
       <c r="A183" s="23">
         <f>generator_costs!A188</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B183" s="23" t="str">
         <f>generator_costs!B188</f>
@@ -42235,7 +42484,7 @@
     <row r="184" spans="1:6">
       <c r="A184" s="23">
         <f>generator_costs!A189</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B184" s="23" t="str">
         <f>generator_costs!B189</f>
@@ -42261,7 +42510,7 @@
     <row r="185" spans="1:6">
       <c r="A185" s="23">
         <f>generator_costs!A190</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B185" s="23" t="str">
         <f>generator_costs!B190</f>
@@ -42287,7 +42536,7 @@
     <row r="186" spans="1:6">
       <c r="A186" s="23">
         <f>generator_costs!A191</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B186" s="23" t="str">
         <f>generator_costs!B191</f>
@@ -42313,7 +42562,7 @@
     <row r="187" spans="1:6">
       <c r="A187" s="23">
         <f>generator_costs!A192</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B187" s="23" t="str">
         <f>generator_costs!B192</f>
@@ -42339,7 +42588,7 @@
     <row r="188" spans="1:6">
       <c r="A188" s="23">
         <f>generator_costs!A193</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B188" s="23" t="str">
         <f>generator_costs!B193</f>
@@ -42365,7 +42614,7 @@
     <row r="189" spans="1:6">
       <c r="A189" s="23">
         <f>generator_costs!A194</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B189" s="23" t="str">
         <f>generator_costs!B194</f>
@@ -42391,7 +42640,7 @@
     <row r="190" spans="1:6">
       <c r="A190" s="23">
         <f>generator_costs!A195</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B190" s="23" t="str">
         <f>generator_costs!B195</f>
@@ -42417,7 +42666,7 @@
     <row r="191" spans="1:6">
       <c r="A191" s="23">
         <f>generator_costs!A196</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B191" s="23" t="str">
         <f>generator_costs!B196</f>
@@ -42443,7 +42692,7 @@
     <row r="192" spans="1:6">
       <c r="A192" s="23">
         <f>generator_costs!A197</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B192" s="23" t="str">
         <f>generator_costs!B197</f>
@@ -42469,7 +42718,7 @@
     <row r="193" spans="1:6">
       <c r="A193" s="23">
         <f>generator_costs!A198</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B193" s="23" t="str">
         <f>generator_costs!B198</f>
@@ -42495,7 +42744,7 @@
     <row r="194" spans="1:6">
       <c r="A194" s="23">
         <f>generator_costs!A199</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B194" s="23" t="str">
         <f>generator_costs!B199</f>
@@ -42521,7 +42770,7 @@
     <row r="195" spans="1:6">
       <c r="A195" s="23">
         <f>generator_costs!A200</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B195" s="23" t="str">
         <f>generator_costs!B200</f>
@@ -42547,7 +42796,7 @@
     <row r="196" spans="1:6">
       <c r="A196" s="23">
         <f>generator_costs!A201</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B196" s="23" t="str">
         <f>generator_costs!B201</f>
@@ -42573,7 +42822,7 @@
     <row r="197" spans="1:6">
       <c r="A197" s="23">
         <f>generator_costs!A202</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B197" s="23" t="str">
         <f>generator_costs!B202</f>
@@ -42599,7 +42848,7 @@
     <row r="198" spans="1:6">
       <c r="A198" s="23">
         <f>generator_costs!A203</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B198" s="23" t="str">
         <f>generator_costs!B203</f>
@@ -42625,7 +42874,7 @@
     <row r="199" spans="1:6">
       <c r="A199" s="23">
         <f>generator_costs!A204</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B199" s="23" t="str">
         <f>generator_costs!B204</f>
@@ -42651,7 +42900,7 @@
     <row r="200" spans="1:6">
       <c r="A200" s="23">
         <f>generator_costs!A205</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B200" s="23" t="str">
         <f>generator_costs!B205</f>
@@ -42677,7 +42926,7 @@
     <row r="201" spans="1:6">
       <c r="A201" s="23">
         <f>generator_costs!A206</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B201" s="23" t="str">
         <f>generator_costs!B206</f>
@@ -42703,7 +42952,7 @@
     <row r="202" spans="1:6">
       <c r="A202" s="23">
         <f>generator_costs!A207</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B202" s="23" t="str">
         <f>generator_costs!B207</f>
@@ -42729,7 +42978,7 @@
     <row r="203" spans="1:6">
       <c r="A203" s="23">
         <f>generator_costs!A208</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B203" s="23" t="str">
         <f>generator_costs!B208</f>
@@ -42755,7 +43004,7 @@
     <row r="204" spans="1:6">
       <c r="A204" s="23">
         <f>generator_costs!A209</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B204" s="23" t="str">
         <f>generator_costs!B209</f>
@@ -42781,7 +43030,7 @@
     <row r="205" spans="1:6">
       <c r="A205" s="23">
         <f>generator_costs!A210</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B205" s="23" t="str">
         <f>generator_costs!B210</f>
@@ -42807,7 +43056,7 @@
     <row r="206" spans="1:6">
       <c r="A206" s="23">
         <f>generator_costs!A211</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B206" s="23" t="str">
         <f>generator_costs!B211</f>
@@ -42833,7 +43082,7 @@
     <row r="207" spans="1:6">
       <c r="A207" s="23">
         <f>generator_costs!A212</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B207" s="23" t="str">
         <f>generator_costs!B212</f>
@@ -42859,7 +43108,7 @@
     <row r="208" spans="1:6">
       <c r="A208" s="23">
         <f>generator_costs!A213</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B208" s="23" t="str">
         <f>generator_costs!B213</f>
@@ -42885,7 +43134,7 @@
     <row r="209" spans="1:6">
       <c r="A209" s="23">
         <f>generator_costs!A214</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B209" s="23" t="str">
         <f>generator_costs!B214</f>
@@ -42911,7 +43160,7 @@
     <row r="210" spans="1:6">
       <c r="A210" s="23">
         <f>generator_costs!A215</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B210" s="23" t="str">
         <f>generator_costs!B215</f>
@@ -42937,7 +43186,7 @@
     <row r="211" spans="1:6">
       <c r="A211" s="23">
         <f>generator_costs!A216</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B211" s="23" t="str">
         <f>generator_costs!B216</f>
@@ -42963,7 +43212,7 @@
     <row r="212" spans="1:6">
       <c r="A212" s="23">
         <f>generator_costs!A217</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B212" s="23" t="str">
         <f>generator_costs!B217</f>
@@ -42989,7 +43238,7 @@
     <row r="213" spans="1:6">
       <c r="A213" s="23">
         <f>generator_costs!A218</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B213" s="23" t="str">
         <f>generator_costs!B218</f>
@@ -43015,7 +43264,7 @@
     <row r="214" spans="1:6">
       <c r="A214" s="23">
         <f>generator_costs!A219</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B214" s="23" t="str">
         <f>generator_costs!B219</f>
@@ -43041,7 +43290,7 @@
     <row r="215" spans="1:6">
       <c r="A215" s="23">
         <f>generator_costs!A220</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B215" s="23" t="str">
         <f>generator_costs!B220</f>
@@ -43067,7 +43316,7 @@
     <row r="216" spans="1:6">
       <c r="A216" s="23">
         <f>generator_costs!A221</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B216" s="23" t="str">
         <f>generator_costs!B221</f>
@@ -43093,7 +43342,7 @@
     <row r="217" spans="1:6">
       <c r="A217" s="23">
         <f>generator_costs!A222</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B217" s="23" t="str">
         <f>generator_costs!B222</f>
@@ -43119,7 +43368,7 @@
     <row r="218" spans="1:6">
       <c r="A218" s="23">
         <f>generator_costs!A223</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B218" s="23" t="str">
         <f>generator_costs!B223</f>
@@ -43145,7 +43394,7 @@
     <row r="219" spans="1:6">
       <c r="A219" s="23">
         <f>generator_costs!A224</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B219" s="23" t="str">
         <f>generator_costs!B224</f>
@@ -43171,7 +43420,7 @@
     <row r="220" spans="1:6">
       <c r="A220" s="23">
         <f>generator_costs!A225</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B220" s="23" t="str">
         <f>generator_costs!B225</f>
@@ -43197,7 +43446,7 @@
     <row r="221" spans="1:6">
       <c r="A221" s="23">
         <f>generator_costs!A226</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B221" s="23" t="str">
         <f>generator_costs!B226</f>
@@ -43223,7 +43472,7 @@
     <row r="222" spans="1:6">
       <c r="A222" s="23">
         <f>generator_costs!A227</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B222" s="23" t="str">
         <f>generator_costs!B227</f>
@@ -43249,7 +43498,7 @@
     <row r="223" spans="1:6">
       <c r="A223" s="23">
         <f>generator_costs!A228</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B223" s="23" t="str">
         <f>generator_costs!B228</f>
@@ -43275,7 +43524,7 @@
     <row r="224" spans="1:6">
       <c r="A224" s="23">
         <f>generator_costs!A229</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B224" s="23" t="str">
         <f>generator_costs!B229</f>
@@ -43301,7 +43550,7 @@
     <row r="225" spans="1:6">
       <c r="A225" s="23">
         <f>generator_costs!A230</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B225" s="23" t="str">
         <f>generator_costs!B230</f>
@@ -43327,7 +43576,7 @@
     <row r="226" spans="1:6">
       <c r="A226" s="23">
         <f>generator_costs!A231</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B226" s="23" t="str">
         <f>generator_costs!B231</f>
@@ -43353,7 +43602,7 @@
     <row r="227" spans="1:6">
       <c r="A227" s="23">
         <f>generator_costs!A232</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B227" s="23" t="str">
         <f>generator_costs!B232</f>
@@ -43379,7 +43628,7 @@
     <row r="228" spans="1:6">
       <c r="A228" s="23">
         <f>generator_costs!A233</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B228" s="23" t="str">
         <f>generator_costs!B233</f>
@@ -43405,7 +43654,7 @@
     <row r="229" spans="1:6">
       <c r="A229" s="23">
         <f>generator_costs!A234</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B229" s="23" t="str">
         <f>generator_costs!B234</f>
@@ -43431,7 +43680,7 @@
     <row r="230" spans="1:6">
       <c r="A230" s="23">
         <f>generator_costs!A235</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B230" s="23" t="str">
         <f>generator_costs!B235</f>
@@ -43457,7 +43706,7 @@
     <row r="231" spans="1:6">
       <c r="A231" s="23">
         <f>generator_costs!A236</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B231" s="23" t="str">
         <f>generator_costs!B236</f>
@@ -43483,7 +43732,7 @@
     <row r="232" spans="1:6">
       <c r="A232" s="23">
         <f>generator_costs!A237</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B232" s="23" t="str">
         <f>generator_costs!B237</f>
@@ -43509,7 +43758,7 @@
     <row r="233" spans="1:6">
       <c r="A233" s="23">
         <f>generator_costs!A238</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B233" s="23" t="str">
         <f>generator_costs!B238</f>
@@ -43535,7 +43784,7 @@
     <row r="234" spans="1:6">
       <c r="A234" s="23">
         <f>generator_costs!A239</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B234" s="23" t="str">
         <f>generator_costs!B239</f>
@@ -43561,7 +43810,7 @@
     <row r="235" spans="1:6">
       <c r="A235" s="23">
         <f>generator_costs!A240</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B235" s="23" t="str">
         <f>generator_costs!B240</f>
@@ -43587,7 +43836,7 @@
     <row r="236" spans="1:6">
       <c r="A236" s="23">
         <f>generator_costs!A241</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B236" s="23" t="str">
         <f>generator_costs!B241</f>
@@ -43613,7 +43862,7 @@
     <row r="237" spans="1:6">
       <c r="A237" s="23">
         <f>generator_costs!A242</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B237" s="23" t="str">
         <f>generator_costs!B242</f>
@@ -43639,7 +43888,7 @@
     <row r="238" spans="1:6">
       <c r="A238" s="23">
         <f>generator_costs!A243</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B238" s="23" t="str">
         <f>generator_costs!B243</f>
@@ -43665,7 +43914,7 @@
     <row r="239" spans="1:6">
       <c r="A239" s="23">
         <f>generator_costs!A244</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B239" s="23" t="str">
         <f>generator_costs!B244</f>
@@ -43691,7 +43940,7 @@
     <row r="240" spans="1:6">
       <c r="A240" s="23">
         <f>generator_costs!A245</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B240" s="23" t="str">
         <f>generator_costs!B245</f>
@@ -43717,7 +43966,7 @@
     <row r="241" spans="1:6">
       <c r="A241" s="23">
         <f>generator_costs!A246</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B241" s="23" t="str">
         <f>generator_costs!B246</f>
@@ -43743,7 +43992,7 @@
     <row r="242" spans="1:6">
       <c r="A242" s="23">
         <f>generator_costs!A247</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B242" s="23" t="str">
         <f>generator_costs!B247</f>
@@ -43769,7 +44018,7 @@
     <row r="243" spans="1:6">
       <c r="A243" s="23">
         <f>generator_costs!A248</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B243" s="23" t="str">
         <f>generator_costs!B248</f>
@@ -43795,7 +44044,7 @@
     <row r="244" spans="1:6">
       <c r="A244" s="23">
         <f>generator_costs!A249</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B244" s="23" t="str">
         <f>generator_costs!B249</f>
@@ -43821,7 +44070,7 @@
     <row r="245" spans="1:6">
       <c r="A245" s="23">
         <f>generator_costs!A250</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B245" s="23" t="str">
         <f>generator_costs!B250</f>
@@ -43847,7 +44096,7 @@
     <row r="246" spans="1:6">
       <c r="A246" s="23">
         <f>generator_costs!A251</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B246" s="23" t="str">
         <f>generator_costs!B251</f>
@@ -43873,7 +44122,7 @@
     <row r="247" spans="1:6">
       <c r="A247" s="23">
         <f>generator_costs!A252</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B247" s="23" t="str">
         <f>generator_costs!B252</f>
@@ -43899,7 +44148,7 @@
     <row r="248" spans="1:6">
       <c r="A248" s="23">
         <f>generator_costs!A253</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B248" s="23" t="str">
         <f>generator_costs!B253</f>
@@ -43925,7 +44174,7 @@
     <row r="249" spans="1:6">
       <c r="A249" s="23">
         <f>generator_costs!A254</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B249" s="23" t="str">
         <f>generator_costs!B254</f>
@@ -43951,7 +44200,7 @@
     <row r="250" spans="1:6">
       <c r="A250" s="23">
         <f>generator_costs!A255</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B250" s="23" t="str">
         <f>generator_costs!B255</f>
@@ -43977,7 +44226,7 @@
     <row r="251" spans="1:6">
       <c r="A251" s="23">
         <f>generator_costs!A256</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B251" s="23" t="str">
         <f>generator_costs!B256</f>
@@ -44003,7 +44252,7 @@
     <row r="252" spans="1:6">
       <c r="A252" s="23">
         <f>generator_costs!A257</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B252" s="23" t="str">
         <f>generator_costs!B257</f>
@@ -44029,7 +44278,7 @@
     <row r="253" spans="1:6">
       <c r="A253" s="23">
         <f>generator_costs!A258</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B253" s="23" t="str">
         <f>generator_costs!B258</f>
@@ -44055,7 +44304,7 @@
     <row r="254" spans="1:6">
       <c r="A254" s="23">
         <f>generator_costs!A259</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B254" s="23" t="str">
         <f>generator_costs!B259</f>
@@ -44081,7 +44330,7 @@
     <row r="255" spans="1:6">
       <c r="A255" s="23">
         <f>generator_costs!A260</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B255" s="23" t="str">
         <f>generator_costs!B260</f>
@@ -44107,7 +44356,7 @@
     <row r="256" spans="1:6">
       <c r="A256" s="23">
         <f>generator_costs!A261</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B256" s="23" t="str">
         <f>generator_costs!B261</f>
@@ -44133,7 +44382,7 @@
     <row r="257" spans="1:6">
       <c r="A257" s="23">
         <f>generator_costs!A262</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B257" s="23" t="str">
         <f>generator_costs!B262</f>
@@ -44159,7 +44408,7 @@
     <row r="258" spans="1:6">
       <c r="A258" s="23">
         <f>generator_costs!A263</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B258" s="23" t="str">
         <f>generator_costs!B263</f>
@@ -44185,7 +44434,7 @@
     <row r="259" spans="1:6">
       <c r="A259" s="23">
         <f>generator_costs!A264</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B259" s="23" t="str">
         <f>generator_costs!B264</f>
@@ -44211,7 +44460,7 @@
     <row r="260" spans="1:6">
       <c r="A260" s="23">
         <f>generator_costs!A265</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B260" s="23" t="str">
         <f>generator_costs!B265</f>
@@ -44237,7 +44486,7 @@
     <row r="261" spans="1:6">
       <c r="A261" s="23">
         <f>generator_costs!A266</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B261" s="23" t="str">
         <f>generator_costs!B266</f>
@@ -44263,7 +44512,7 @@
     <row r="262" spans="1:6">
       <c r="A262" s="23">
         <f>generator_costs!A267</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B262" s="23" t="str">
         <f>generator_costs!B267</f>
@@ -44289,7 +44538,7 @@
     <row r="263" spans="1:6">
       <c r="A263" s="23">
         <f>generator_costs!A268</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B263" s="23" t="str">
         <f>generator_costs!B268</f>
@@ -44315,7 +44564,7 @@
     <row r="264" spans="1:6">
       <c r="A264" s="23">
         <f>generator_costs!A269</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B264" s="23" t="str">
         <f>generator_costs!B269</f>
@@ -44341,7 +44590,7 @@
     <row r="265" spans="1:6">
       <c r="A265" s="23">
         <f>generator_costs!A270</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B265" s="23" t="str">
         <f>generator_costs!B270</f>
@@ -44367,7 +44616,7 @@
     <row r="266" spans="1:6">
       <c r="A266" s="23">
         <f>generator_costs!A271</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B266" s="23" t="str">
         <f>generator_costs!B271</f>
@@ -44393,7 +44642,7 @@
     <row r="267" spans="1:6">
       <c r="A267" s="23">
         <f>generator_costs!A272</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B267" s="23" t="str">
         <f>generator_costs!B272</f>
@@ -44419,7 +44668,7 @@
     <row r="268" spans="1:6">
       <c r="A268" s="23">
         <f>generator_costs!A273</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B268" s="23" t="str">
         <f>generator_costs!B273</f>
@@ -44445,7 +44694,7 @@
     <row r="269" spans="1:6">
       <c r="A269" s="23">
         <f>generator_costs!A274</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B269" s="23" t="str">
         <f>generator_costs!B274</f>
@@ -44471,7 +44720,7 @@
     <row r="270" spans="1:6">
       <c r="A270" s="23">
         <f>generator_costs!A275</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B270" s="23" t="str">
         <f>generator_costs!B275</f>
@@ -44497,7 +44746,7 @@
     <row r="271" spans="1:6">
       <c r="A271" s="23">
         <f>generator_costs!A276</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B271" s="23" t="str">
         <f>generator_costs!B276</f>
@@ -44523,7 +44772,7 @@
     <row r="272" spans="1:6">
       <c r="A272" s="23">
         <f>generator_costs!A277</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B272" s="23" t="str">
         <f>generator_costs!B277</f>
@@ -44549,7 +44798,7 @@
     <row r="273" spans="1:6">
       <c r="A273" s="23">
         <f>generator_costs!A278</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B273" s="23" t="str">
         <f>generator_costs!B278</f>
@@ -44575,7 +44824,7 @@
     <row r="274" spans="1:6">
       <c r="A274" s="23">
         <f>generator_costs!A279</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B274" s="23" t="str">
         <f>generator_costs!B279</f>
@@ -44601,7 +44850,7 @@
     <row r="275" spans="1:6">
       <c r="A275" s="23">
         <f>generator_costs!A280</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B275" s="23" t="str">
         <f>generator_costs!B280</f>
@@ -44627,7 +44876,7 @@
     <row r="276" spans="1:6">
       <c r="A276" s="23">
         <f>generator_costs!A281</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B276" s="23" t="str">
         <f>generator_costs!B281</f>
@@ -44653,7 +44902,7 @@
     <row r="277" spans="1:6">
       <c r="A277" s="23">
         <f>generator_costs!A282</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B277" s="23" t="str">
         <f>generator_costs!B282</f>
@@ -44679,7 +44928,7 @@
     <row r="278" spans="1:6">
       <c r="A278" s="23">
         <f>generator_costs!A283</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B278" s="23" t="str">
         <f>generator_costs!B283</f>
@@ -44705,7 +44954,7 @@
     <row r="279" spans="1:6">
       <c r="A279" s="23">
         <f>generator_costs!A284</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B279" s="23" t="str">
         <f>generator_costs!B284</f>
@@ -44731,7 +44980,7 @@
     <row r="280" spans="1:6">
       <c r="A280" s="23">
         <f>generator_costs!A285</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B280" s="23" t="str">
         <f>generator_costs!B285</f>
@@ -44757,7 +45006,7 @@
     <row r="281" spans="1:6">
       <c r="A281" s="23">
         <f>generator_costs!A286</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B281" s="23" t="str">
         <f>generator_costs!B286</f>
@@ -44783,7 +45032,7 @@
     <row r="282" spans="1:6">
       <c r="A282" s="23">
         <f>generator_costs!A287</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B282" s="23" t="str">
         <f>generator_costs!B287</f>
@@ -44809,7 +45058,7 @@
     <row r="283" spans="1:6">
       <c r="A283" s="23">
         <f>generator_costs!A288</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B283" s="23" t="str">
         <f>generator_costs!B288</f>
@@ -44835,7 +45084,7 @@
     <row r="284" spans="1:6">
       <c r="A284" s="23">
         <f>generator_costs!A289</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B284" s="23" t="str">
         <f>generator_costs!B289</f>
@@ -44861,7 +45110,7 @@
     <row r="285" spans="1:6">
       <c r="A285" s="23">
         <f>generator_costs!A290</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B285" s="23" t="str">
         <f>generator_costs!B290</f>
@@ -44887,7 +45136,7 @@
     <row r="286" spans="1:6">
       <c r="A286" s="23">
         <f>generator_costs!A291</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B286" s="23" t="str">
         <f>generator_costs!B291</f>
@@ -44913,7 +45162,7 @@
     <row r="287" spans="1:6">
       <c r="A287" s="23">
         <f>generator_costs!A292</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B287" s="23" t="str">
         <f>generator_costs!B292</f>
@@ -44939,7 +45188,7 @@
     <row r="288" spans="1:6">
       <c r="A288" s="23">
         <f>generator_costs!A293</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B288" s="23" t="str">
         <f>generator_costs!B293</f>
@@ -44965,7 +45214,7 @@
     <row r="289" spans="1:6">
       <c r="A289" s="23">
         <f>generator_costs!A294</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B289" s="23" t="str">
         <f>generator_costs!B294</f>
@@ -44991,7 +45240,7 @@
     <row r="290" spans="1:6">
       <c r="A290" s="23">
         <f>generator_costs!A295</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B290" s="23" t="str">
         <f>generator_costs!B295</f>
@@ -45017,7 +45266,7 @@
     <row r="291" spans="1:6">
       <c r="A291" s="23">
         <f>generator_costs!A296</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B291" s="23" t="str">
         <f>generator_costs!B296</f>
@@ -45043,7 +45292,7 @@
     <row r="292" spans="1:6">
       <c r="A292" s="23">
         <f>generator_costs!A297</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B292" s="23" t="str">
         <f>generator_costs!B297</f>
@@ -45069,7 +45318,7 @@
     <row r="293" spans="1:6">
       <c r="A293" s="23">
         <f>generator_costs!A298</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B293" s="23" t="str">
         <f>generator_costs!B298</f>
@@ -45095,7 +45344,7 @@
     <row r="294" spans="1:6">
       <c r="A294" s="23">
         <f>generator_costs!A299</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B294" s="23" t="str">
         <f>generator_costs!B299</f>
@@ -45121,7 +45370,7 @@
     <row r="295" spans="1:6">
       <c r="A295" s="23">
         <f>generator_costs!A300</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B295" s="23" t="str">
         <f>generator_costs!B300</f>
@@ -45147,7 +45396,7 @@
     <row r="296" spans="1:6">
       <c r="A296" s="23">
         <f>generator_costs!A301</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B296" s="23" t="str">
         <f>generator_costs!B301</f>
@@ -45173,7 +45422,7 @@
     <row r="297" spans="1:6">
       <c r="A297" s="23">
         <f>generator_costs!A302</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B297" s="23" t="str">
         <f>generator_costs!B302</f>
@@ -45199,7 +45448,7 @@
     <row r="298" spans="1:6">
       <c r="A298" s="23">
         <f>generator_costs!A303</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B298" s="23" t="str">
         <f>generator_costs!B303</f>
@@ -45225,7 +45474,7 @@
     <row r="299" spans="1:6">
       <c r="A299" s="23">
         <f>generator_costs!A304</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B299" s="23" t="str">
         <f>generator_costs!B304</f>
@@ -45251,7 +45500,7 @@
     <row r="300" spans="1:6">
       <c r="A300" s="23">
         <f>generator_costs!A305</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B300" s="23" t="str">
         <f>generator_costs!B305</f>
@@ -45277,7 +45526,7 @@
     <row r="301" spans="1:6">
       <c r="A301" s="23">
         <f>generator_costs!A306</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B301" s="23" t="str">
         <f>generator_costs!B306</f>
@@ -45303,7 +45552,7 @@
     <row r="302" spans="1:6">
       <c r="A302" s="23">
         <f>generator_costs!A307</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B302" s="23" t="str">
         <f>generator_costs!B307</f>
@@ -45329,7 +45578,7 @@
     <row r="303" spans="1:6">
       <c r="A303" s="23">
         <f>generator_costs!A308</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B303" s="23" t="str">
         <f>generator_costs!B308</f>
@@ -45355,7 +45604,7 @@
     <row r="304" spans="1:6">
       <c r="A304" s="23">
         <f>generator_costs!A309</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B304" s="23" t="str">
         <f>generator_costs!B309</f>
@@ -45381,7 +45630,7 @@
     <row r="305" spans="1:6">
       <c r="A305" s="23">
         <f>generator_costs!A310</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B305" s="23" t="str">
         <f>generator_costs!B310</f>
@@ -45407,7 +45656,7 @@
     <row r="306" spans="1:6">
       <c r="A306" s="23">
         <f>generator_costs!A311</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B306" s="23" t="str">
         <f>generator_costs!B311</f>
@@ -45433,7 +45682,7 @@
     <row r="307" spans="1:6">
       <c r="A307" s="23">
         <f>generator_costs!A312</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B307" s="23" t="str">
         <f>generator_costs!B312</f>
@@ -45459,7 +45708,7 @@
     <row r="308" spans="1:6">
       <c r="A308" s="23">
         <f>generator_costs!A313</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B308" s="23" t="str">
         <f>generator_costs!B313</f>
@@ -45485,7 +45734,7 @@
     <row r="309" spans="1:6">
       <c r="A309" s="23">
         <f>generator_costs!A314</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B309" s="23" t="str">
         <f>generator_costs!B314</f>
@@ -45511,7 +45760,7 @@
     <row r="310" spans="1:6">
       <c r="A310" s="23">
         <f>generator_costs!A315</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B310" s="23" t="str">
         <f>generator_costs!B315</f>
@@ -45537,7 +45786,7 @@
     <row r="311" spans="1:6">
       <c r="A311" s="23">
         <f>generator_costs!A316</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B311" s="23" t="str">
         <f>generator_costs!B316</f>
@@ -45563,7 +45812,7 @@
     <row r="312" spans="1:6">
       <c r="A312" s="23">
         <f>generator_costs!A317</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B312" s="23" t="str">
         <f>generator_costs!B317</f>
@@ -45589,7 +45838,7 @@
     <row r="313" spans="1:6">
       <c r="A313" s="23">
         <f>generator_costs!A318</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B313" s="23" t="str">
         <f>generator_costs!B318</f>
@@ -45615,7 +45864,7 @@
     <row r="314" spans="1:6">
       <c r="A314" s="23">
         <f>generator_costs!A319</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B314" s="23" t="str">
         <f>generator_costs!B319</f>
@@ -45641,7 +45890,7 @@
     <row r="315" spans="1:6">
       <c r="A315" s="23">
         <f>generator_costs!A320</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B315" s="23" t="str">
         <f>generator_costs!B320</f>
@@ -45667,7 +45916,7 @@
     <row r="316" spans="1:6">
       <c r="A316" s="23">
         <f>generator_costs!A321</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B316" s="23" t="str">
         <f>generator_costs!B321</f>
@@ -45693,7 +45942,7 @@
     <row r="317" spans="1:6">
       <c r="A317" s="23">
         <f>generator_costs!A322</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B317" s="23" t="str">
         <f>generator_costs!B322</f>
@@ -45719,7 +45968,7 @@
     <row r="318" spans="1:6">
       <c r="A318" s="23">
         <f>generator_costs!A323</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B318" s="23" t="str">
         <f>generator_costs!B323</f>
@@ -45745,7 +45994,7 @@
     <row r="319" spans="1:6">
       <c r="A319" s="23">
         <f>generator_costs!A324</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B319" s="23" t="str">
         <f>generator_costs!B324</f>
@@ -45771,7 +46020,7 @@
     <row r="320" spans="1:6">
       <c r="A320" s="23">
         <f>generator_costs!A325</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B320" s="23" t="str">
         <f>generator_costs!B325</f>
@@ -45797,7 +46046,7 @@
     <row r="321" spans="1:6">
       <c r="A321" s="23">
         <f>generator_costs!A326</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B321" s="23" t="str">
         <f>generator_costs!B326</f>
@@ -45823,7 +46072,7 @@
     <row r="322" spans="1:6">
       <c r="A322" s="23">
         <f>generator_costs!A327</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B322" s="23" t="str">
         <f>generator_costs!B327</f>
@@ -45849,7 +46098,7 @@
     <row r="323" spans="1:6">
       <c r="A323" s="23">
         <f>generator_costs!A328</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B323" s="23" t="str">
         <f>generator_costs!B328</f>
@@ -45875,7 +46124,7 @@
     <row r="324" spans="1:6">
       <c r="A324" s="23">
         <f>generator_costs!A329</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B324" s="23" t="str">
         <f>generator_costs!B329</f>
@@ -45901,7 +46150,7 @@
     <row r="325" spans="1:6">
       <c r="A325" s="23">
         <f>generator_costs!A330</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B325" s="23" t="str">
         <f>generator_costs!B330</f>
@@ -45927,7 +46176,7 @@
     <row r="326" spans="1:6">
       <c r="A326" s="23">
         <f>generator_costs!A331</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B326" s="23" t="str">
         <f>generator_costs!B331</f>
@@ -45953,7 +46202,7 @@
     <row r="327" spans="1:6">
       <c r="A327" s="23">
         <f>generator_costs!A332</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B327" s="23" t="str">
         <f>generator_costs!B332</f>
@@ -45979,7 +46228,7 @@
     <row r="328" spans="1:6">
       <c r="A328" s="23">
         <f>generator_costs!A333</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B328" s="23" t="str">
         <f>generator_costs!B333</f>
@@ -46005,7 +46254,7 @@
     <row r="329" spans="1:6">
       <c r="A329" s="23">
         <f>generator_costs!A334</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B329" s="23" t="str">
         <f>generator_costs!B334</f>
@@ -46031,7 +46280,7 @@
     <row r="330" spans="1:6">
       <c r="A330" s="23">
         <f>generator_costs!A335</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B330" s="23" t="str">
         <f>generator_costs!B335</f>
@@ -46057,7 +46306,7 @@
     <row r="331" spans="1:6">
       <c r="A331" s="23">
         <f>generator_costs!A336</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B331" s="23" t="str">
         <f>generator_costs!B336</f>
@@ -46083,7 +46332,7 @@
     <row r="332" spans="1:6">
       <c r="A332" s="23">
         <f>generator_costs!A337</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B332" s="23" t="str">
         <f>generator_costs!B337</f>
@@ -46109,7 +46358,7 @@
     <row r="333" spans="1:6">
       <c r="A333" s="23">
         <f>generator_costs!A338</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B333" s="23" t="str">
         <f>generator_costs!B338</f>
@@ -46135,7 +46384,7 @@
     <row r="334" spans="1:6">
       <c r="A334" s="23">
         <f>generator_costs!A339</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B334" s="23" t="str">
         <f>generator_costs!B339</f>
@@ -46161,7 +46410,7 @@
     <row r="335" spans="1:6">
       <c r="A335" s="23">
         <f>generator_costs!A340</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B335" s="23" t="str">
         <f>generator_costs!B340</f>
@@ -46187,7 +46436,7 @@
     <row r="336" spans="1:6">
       <c r="A336" s="23">
         <f>generator_costs!A341</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B336" s="23" t="str">
         <f>generator_costs!B341</f>
@@ -46213,7 +46462,7 @@
     <row r="337" spans="1:6">
       <c r="A337" s="23">
         <f>generator_costs!A342</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B337" s="23" t="str">
         <f>generator_costs!B342</f>
@@ -46239,7 +46488,7 @@
     <row r="338" spans="1:6">
       <c r="A338" s="23">
         <f>generator_costs!A343</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B338" s="23" t="str">
         <f>generator_costs!B343</f>
@@ -46265,7 +46514,7 @@
     <row r="339" spans="1:6">
       <c r="A339" s="23">
         <f>generator_costs!A344</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B339" s="23" t="str">
         <f>generator_costs!B344</f>
@@ -46285,13 +46534,13 @@
       </c>
       <c r="F339" s="23">
         <f>generator_costs!K344</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="23">
         <f>generator_costs!A345</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B340" s="23" t="str">
         <f>generator_costs!B345</f>
@@ -46311,13 +46560,13 @@
       </c>
       <c r="F340" s="23">
         <f>generator_costs!K345</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="23">
         <f>generator_costs!A346</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B341" s="23" t="str">
         <f>generator_costs!B346</f>
@@ -46337,13 +46586,13 @@
       </c>
       <c r="F341" s="23">
         <f>generator_costs!K346</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="23">
         <f>generator_costs!A347</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B342" s="23" t="str">
         <f>generator_costs!B347</f>
@@ -46363,13 +46612,13 @@
       </c>
       <c r="F342" s="23">
         <f>generator_costs!K347</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="23">
         <f>generator_costs!A348</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B343" s="23" t="str">
         <f>generator_costs!B348</f>
@@ -46389,13 +46638,13 @@
       </c>
       <c r="F343" s="23">
         <f>generator_costs!K348</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="23">
         <f>generator_costs!A349</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B344" s="23" t="str">
         <f>generator_costs!B349</f>
@@ -46415,13 +46664,13 @@
       </c>
       <c r="F344" s="23">
         <f>generator_costs!K349</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="23">
         <f>generator_costs!A350</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B345" s="23" t="str">
         <f>generator_costs!B350</f>
@@ -46441,13 +46690,13 @@
       </c>
       <c r="F345" s="23">
         <f>generator_costs!K350</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="23">
         <f>generator_costs!A351</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B346" s="23" t="str">
         <f>generator_costs!B351</f>
@@ -46467,13 +46716,13 @@
       </c>
       <c r="F346" s="23">
         <f>generator_costs!K351</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="23">
         <f>generator_costs!A352</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B347" s="23" t="str">
         <f>generator_costs!B352</f>
@@ -46493,7 +46742,7 @@
       </c>
       <c r="F347" s="23">
         <f>generator_costs!K352</f>
-        <v>54.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -46605,7 +46854,7 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -46613,14 +46862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="43" customWidth="1"/>
     <col min="2" max="7" width="10.7109375" style="43"/>
@@ -49958,7 +50207,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -49966,14 +50215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="30" customWidth="1"/>
     <col min="2" max="7" width="10.7109375" style="30"/>
@@ -52428,12 +52677,73 @@
       <c r="A100" s="36"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/DatabasePrep/GeneratorInfo/generator_info_and_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_info_and_costs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="3340" windowWidth="33560" windowHeight="21340" tabRatio="572" activeTab="3"/>
+    <workbookView xWindow="8860" yWindow="0" windowWidth="33560" windowHeight="21340" tabRatio="572" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="generator_info" sheetId="1" r:id="rId1"/>
@@ -940,14 +940,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Water</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1157,6 +1149,12 @@
   </si>
   <si>
     <t>storage_energy_capacity_cost_$2007_per_mwh</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped_EP</t>
+  </si>
+  <si>
+    <t>Hydro_Pumped_EP</t>
   </si>
 </sst>
 </file>
@@ -2482,11 +2480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088521320"/>
-        <c:axId val="2088523912"/>
+        <c:axId val="-2070018072"/>
+        <c:axId val="-2070045672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088521320"/>
+        <c:axId val="-2070018072"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1.0"/>
@@ -2498,12 +2496,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088523912"/>
+        <c:crossAx val="-2070045672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2088523912"/>
+        <c:axId val="-2070045672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,13 +2512,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088521320"/>
+        <c:crossAx val="-2070018072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2895,11 +2894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088767384"/>
-        <c:axId val="2088764280"/>
+        <c:axId val="-2052863528"/>
+        <c:axId val="-2052866584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088767384"/>
+        <c:axId val="-2052863528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1.0"/>
@@ -2911,12 +2910,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088764280"/>
+        <c:crossAx val="-2052866584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2088764280"/>
+        <c:axId val="-2052866584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,13 +2926,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088767384"/>
+        <c:crossAx val="-2052863528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3161,11 +3161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082247400"/>
-        <c:axId val="2082217240"/>
+        <c:axId val="-2052905608"/>
+        <c:axId val="-2052908696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082247400"/>
+        <c:axId val="-2052905608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082217240"/>
+        <c:crossAx val="-2052908696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3183,7 +3183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082217240"/>
+        <c:axId val="-2052908696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3194,13 +3194,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082247400"/>
+        <c:crossAx val="-2052905608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3245,6 +3246,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4287,11 +4289,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090024504"/>
-        <c:axId val="2090027720"/>
+        <c:axId val="-2051533480"/>
+        <c:axId val="-2051530264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090024504"/>
+        <c:axId val="-2051533480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4301,7 +4303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090027720"/>
+        <c:crossAx val="-2051530264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4309,7 +4311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090027720"/>
+        <c:axId val="-2051530264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4320,13 +4322,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090024504"/>
+        <c:crossAx val="-2051533480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5580,11 +5583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090088600"/>
-        <c:axId val="2090091640"/>
+        <c:axId val="-2051474968"/>
+        <c:axId val="-2051471896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090088600"/>
+        <c:axId val="-2051474968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5594,7 +5597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090091640"/>
+        <c:crossAx val="-2051471896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5602,7 +5605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090091640"/>
+        <c:axId val="-2051471896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5613,13 +5616,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090088600"/>
+        <c:crossAx val="-2051474968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6169,10 +6173,10 @@
   <dimension ref="A1:AL109"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AK21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AK19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A63"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -6202,7 +6206,7 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>207</v>
@@ -6939,7 +6943,7 @@
         <v>CCGT_EP</v>
       </c>
       <c r="AL6" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:38" s="15" customFormat="1">
@@ -8867,7 +8871,7 @@
         <v>Gas_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AL21" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -10936,7 +10940,7 @@
         <v>Bio_Solid_Steam_Turbine_Cogen_CCS</v>
       </c>
       <c r="AL37" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:38">
@@ -13659,13 +13663,13 @@
         <v>15</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="23">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D60" s="23">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="F60" s="23">
         <v>91289</v>
@@ -13759,7 +13763,7 @@
       </c>
       <c r="AK60" s="23" t="str">
         <f t="shared" si="32"/>
-        <v>Hydro_NonPumped</v>
+        <v>Hydro_NonPumped_EP</v>
       </c>
       <c r="AL60" s="23"/>
     </row>
@@ -13771,7 +13775,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="D61" s="23">
         <v>0</v>
@@ -13871,10 +13875,10 @@
       </c>
       <c r="AK61" s="23" t="str">
         <f t="shared" si="32"/>
-        <v>Hydro_Pumped</v>
+        <v>Hydro_Pumped_EP</v>
       </c>
       <c r="AL61" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1">
@@ -13991,7 +13995,7 @@
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="AL62" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="54" customFormat="1">
@@ -14105,7 +14109,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AL63" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="3:14">
@@ -14200,7 +14204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK68"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="125" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -23080,7 +23084,7 @@
       </c>
       <c r="C60" s="23" t="str">
         <f>generator_info!C60</f>
-        <v>Hydro_NonPumped</v>
+        <v>Hydro_NonPumped_EP</v>
       </c>
       <c r="D60" s="23">
         <f>generator_info!D60</f>
@@ -23230,7 +23234,7 @@
       </c>
       <c r="C61" s="23" t="str">
         <f>generator_info!C61</f>
-        <v>Hydro_Pumped</v>
+        <v>Hydro_Pumped_EP</v>
       </c>
       <c r="D61" s="23">
         <f>generator_info!D61</f>
@@ -23825,7 +23829,7 @@
   <dimension ref="A1:L353"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
@@ -23856,7 +23860,7 @@
     </row>
     <row r="3" spans="1:12" s="23" customFormat="1">
       <c r="B3" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="23" customFormat="1">
@@ -23869,7 +23873,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>155</v>
@@ -23878,7 +23882,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>157</v>
@@ -23902,7 +23906,7 @@
         <v>148</v>
       </c>
       <c r="L6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -37159,7 +37163,7 @@
       </c>
       <c r="B333" t="str">
         <f>generator_info!C60</f>
-        <v>Hydro_NonPumped</v>
+        <v>Hydro_NonPumped_EP</v>
       </c>
       <c r="D333" s="23">
         <f t="shared" si="286"/>
@@ -37197,7 +37201,7 @@
       </c>
       <c r="B334" t="str">
         <f>generator_info!C61</f>
-        <v>Hydro_Pumped</v>
+        <v>Hydro_Pumped_EP</v>
       </c>
       <c r="D334" s="23">
         <f t="shared" ref="D334" si="288">D333</f>
@@ -37974,8 +37978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="C353" sqref="C353"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="D310" sqref="D310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -47801,7 +47805,7 @@
       </c>
       <c r="B328" s="23" t="str">
         <f>generator_costs!B333</f>
-        <v>Hydro_NonPumped</v>
+        <v>Hydro_NonPumped_EP</v>
       </c>
       <c r="C328" s="23">
         <f>generator_costs!C333</f>
@@ -47831,7 +47835,7 @@
       </c>
       <c r="B329" s="23" t="str">
         <f>generator_costs!B334</f>
-        <v>Hydro_Pumped</v>
+        <v>Hydro_Pumped_EP</v>
       </c>
       <c r="C329" s="23">
         <f>generator_costs!C334</f>
@@ -54357,149 +54361,149 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="B21" s="59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="B22" s="59" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="23" customFormat="1">
       <c r="A26" s="57"/>
       <c r="L26" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" t="s">
         <v>235</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>236</v>
       </c>
-      <c r="C30" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" t="s">
         <v>238</v>
       </c>
-      <c r="E30" t="s">
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="F30" t="s">
+      <c r="M30" s="59" t="s">
         <v>254</v>
-      </c>
-      <c r="G30" t="s">
-        <v>255</v>
-      </c>
-      <c r="H30" t="s">
-        <v>256</v>
-      </c>
-      <c r="I30" t="s">
-        <v>240</v>
-      </c>
-      <c r="J30" t="s">
-        <v>241</v>
-      </c>
-      <c r="L30" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="M30" s="59" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" t="s">
         <v>243</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>244</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>245</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" t="s">
         <v>246</v>
       </c>
-      <c r="F31" t="s">
-        <v>247</v>
-      </c>
-      <c r="G31" t="s">
-        <v>249</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>248</v>
       </c>
-      <c r="J31" t="s">
-        <v>250</v>
-      </c>
       <c r="L31" s="59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M31" s="59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -54918,69 +54922,69 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" t="s">
         <v>235</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>236</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" t="s">
         <v>237</v>
-      </c>
-      <c r="D47" t="s">
-        <v>238</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="G47" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="23" customFormat="1">
       <c r="B48" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>245</v>
-      </c>
       <c r="E48" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="H48" s="23" t="s">
         <v>263</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -55043,7 +55047,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -55055,7 +55059,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -55067,7 +55071,7 @@
     <row r="56" spans="1:8" s="23" customFormat="1"/>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -55078,15 +55082,15 @@
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B61">
         <f>D49*A58</f>
@@ -55099,7 +55103,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B62">
         <f>D50*A58</f>
@@ -55112,12 +55116,12 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B65">
         <f>C61/B49</f>
@@ -55126,7 +55130,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B66" s="23">
         <f>C62/B50</f>
@@ -55135,24 +55139,24 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B68" s="59"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="59" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B70" s="59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:2">
